--- a/BackTest/2020-01-23 BackTest BTG.xlsx
+++ b/BackTest/2020-01-23 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1087.26171372</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1413.00181372</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>854.25841372</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>766.73751372</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>775.11751372</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>927.0412137200001</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>925.98661372</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>924.01881372</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>924.01881372</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>981.87471372</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>1141.47818215</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>810.8918821500001</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>1072.29008215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1040.49168215</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>933.35098215</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>489.85098215</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>489.85098215</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>673.75958215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1311.07178215</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1352.87178215</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1597.22258215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1620.66868215</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1550.45138215</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1550.45138215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1455.70248215</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>827.5690143399996</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1006.48931426</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1006.48931426</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1176.56511426</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1262.41761426</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1109.41761426</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -4312,14 +4312,10 @@
         <v>-4975.752585740001</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>12270</v>
-      </c>
-      <c r="J119" t="n">
-        <v>12270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
@@ -4349,19 +4345,11 @@
         <v>-4975.752585740001</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>12270</v>
-      </c>
-      <c r="J120" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4390,19 +4378,11 @@
         <v>-4954.752585740001</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
-      </c>
-      <c r="I121" t="n">
-        <v>12270</v>
-      </c>
-      <c r="J121" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4431,19 +4411,11 @@
         <v>-5052.752585740001</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
-      </c>
-      <c r="I122" t="n">
-        <v>12370</v>
-      </c>
-      <c r="J122" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4472,19 +4444,11 @@
         <v>-5197.603885740001</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>12350</v>
-      </c>
-      <c r="J123" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4513,19 +4477,11 @@
         <v>-5185.57268574</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
-      </c>
-      <c r="I124" t="n">
-        <v>12340</v>
-      </c>
-      <c r="J124" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4554,19 +4510,11 @@
         <v>-5135.57268574</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>12350</v>
-      </c>
-      <c r="J125" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4595,19 +4543,11 @@
         <v>-5129.449185740001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>12480</v>
-      </c>
-      <c r="J126" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4636,19 +4576,11 @@
         <v>-5098.150185740001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>12570</v>
-      </c>
-      <c r="J127" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4680,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4719,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4758,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4797,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4836,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4875,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4914,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4953,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4992,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5031,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5070,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5109,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5148,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5187,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5226,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5265,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5304,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5343,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5382,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5421,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5460,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5499,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5538,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5577,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5616,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5655,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5694,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5733,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5772,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5811,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5850,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5889,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5928,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5967,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6006,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6045,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6084,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6123,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6162,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6201,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6240,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6276,17 +5962,11 @@
         <v>-4801.564849910002</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6318,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6357,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6396,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6432,17 +6094,11 @@
         <v>-4667.713898580002</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6474,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6513,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6552,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6591,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6630,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6669,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6705,17 +6325,11 @@
         <v>-5220.465264030002</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6744,17 +6358,11 @@
         <v>-5241.589164030001</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6783,17 +6391,11 @@
         <v>-5325.125838580001</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6822,17 +6424,11 @@
         <v>-5306.822038580001</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6861,17 +6457,11 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6900,17 +6490,11 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6939,17 +6523,11 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6978,17 +6556,11 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7017,17 +6589,11 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7056,17 +6622,11 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7095,17 +6655,11 @@
         <v>-5600.638638580001</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7137,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7173,17 +6721,11 @@
         <v>-5605.610638580001</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7212,17 +6754,11 @@
         <v>-5741.469538580001</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7251,17 +6787,11 @@
         <v>-5000.145638580001</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7290,17 +6820,11 @@
         <v>-5000.145638580001</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7329,17 +6853,11 @@
         <v>-4988.428338580001</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7368,17 +6886,11 @@
         <v>-5302.146638580001</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7407,17 +6919,11 @@
         <v>-5302.146638580001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7449,14 +6955,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7488,14 +6988,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7527,14 +7021,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7566,14 +7054,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7605,14 +7087,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7644,14 +7120,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7683,14 +7153,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7722,14 +7186,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7761,14 +7219,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7800,14 +7252,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7839,14 +7285,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7878,14 +7318,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7914,17 +7348,11 @@
         <v>-6011.23523858</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7956,14 +7384,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7992,17 +7414,11 @@
         <v>-6220.743838580001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8034,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8073,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8112,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8151,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8190,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8229,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8268,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8307,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8346,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8385,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8424,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8463,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8502,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8541,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8580,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8619,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8658,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8697,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8736,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8775,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8814,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8853,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8892,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8931,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8970,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9009,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9048,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9087,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9126,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9165,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9204,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9243,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9282,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9321,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9360,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9396,19 +8602,13 @@
         <v>-6214.041772440001</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>12270</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
-        <v>1.048789731051345</v>
+        <v>1</v>
       </c>
       <c r="M249" t="inlineStr"/>
     </row>
@@ -9435,7 +8635,7 @@
         <v>-6758.556872440001</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9468,7 +8668,7 @@
         <v>-6462.317872440001</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9501,7 +8701,7 @@
         <v>-6513.303572440002</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9567,7 +8767,7 @@
         <v>-6679.803572440002</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9600,7 +8800,7 @@
         <v>-6666.153572440002</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9864,7 +9064,7 @@
         <v>-6526.466695750002</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -11580,7 +10780,7 @@
         <v>-6081.717912159998</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11712,7 +10912,7 @@
         <v>-6393.871912159999</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11745,7 +10945,7 @@
         <v>-6393.871912159999</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11778,7 +10978,7 @@
         <v>-6217.871912159999</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11811,7 +11011,7 @@
         <v>-5946.871912159999</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11844,7 +11044,7 @@
         <v>-6029.678912159999</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11877,7 +11077,7 @@
         <v>-6029.249012159999</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11976,7 +11176,7 @@
         <v>-5710.686016379998</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12009,7 +11209,7 @@
         <v>-5710.766016379998</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12042,7 +11242,7 @@
         <v>-6010.766016379998</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12075,7 +11275,7 @@
         <v>-6010.726016379998</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12108,7 +11308,7 @@
         <v>-6010.726016379998</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12141,7 +11341,7 @@
         <v>-6084.726016379998</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12174,7 +11374,7 @@
         <v>-6080.376016379998</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12207,7 +11407,7 @@
         <v>-6025.039016379998</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12240,7 +11440,7 @@
         <v>-6140.469016379998</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12273,7 +11473,7 @@
         <v>-5989.588716379998</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12306,7 +11506,7 @@
         <v>-6006.197616379998</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12339,7 +11539,7 @@
         <v>-5963.517116379998</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12372,7 +11572,7 @@
         <v>-6026.801716379998</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12405,7 +11605,7 @@
         <v>-6182.933716379997</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12438,7 +11638,7 @@
         <v>-6183.580116379997</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12471,7 +11671,7 @@
         <v>-6183.580116379997</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12504,7 +11704,7 @@
         <v>-6501.557216379997</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12537,7 +11737,7 @@
         <v>-6501.557216379997</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12570,7 +11770,7 @@
         <v>-6569.557216379997</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12603,7 +11803,7 @@
         <v>-6582.577216379997</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12636,7 +11836,7 @@
         <v>-6986.137616379998</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12669,7 +11869,7 @@
         <v>-6926.143516379998</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12702,7 +11902,7 @@
         <v>-6891.749816379998</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12735,7 +11935,7 @@
         <v>-6930.066316379998</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12768,7 +11968,7 @@
         <v>-6930.066316379998</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12801,7 +12001,7 @@
         <v>-6896.066316379998</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12834,7 +12034,7 @@
         <v>-6876.066316379998</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12867,7 +12067,7 @@
         <v>-7239.965016379998</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12900,7 +12100,7 @@
         <v>-7239.838116379998</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12933,7 +12133,7 @@
         <v>-7239.878116379998</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -15177,7 +14377,7 @@
         <v>-9859.413972189994</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15210,7 +14410,7 @@
         <v>-9859.413972189994</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15243,7 +14443,7 @@
         <v>-9095.476672189994</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15276,7 +14476,7 @@
         <v>-9404.976672189994</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15309,7 +14509,7 @@
         <v>-9403.683872189995</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15342,7 +14542,7 @@
         <v>-9351.765372189995</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15375,7 +14575,7 @@
         <v>-9351.765372189995</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15408,7 +14608,7 @@
         <v>-9351.765372189995</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15606,7 +14806,7 @@
         <v>-9017.992522809995</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17916,7 +17116,7 @@
         <v>-6372.731892789999</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17949,7 +17149,7 @@
         <v>-6372.731892789999</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17982,7 +17182,7 @@
         <v>-6372.731892789999</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18180,7 +17380,7 @@
         <v>-5365.653392789998</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18246,7 +17446,7 @@
         <v>-4240.812792789999</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18279,7 +17479,7 @@
         <v>-5129.463992789999</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18312,7 +17512,7 @@
         <v>-5129.463992789999</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18345,7 +17545,7 @@
         <v>-5128.054592789999</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18378,7 +17578,7 @@
         <v>-5081.84339279</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18411,7 +17611,7 @@
         <v>-6496.580992789999</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18444,7 +17644,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18477,7 +17677,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18510,7 +17710,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18543,7 +17743,7 @@
         <v>-6500.592592789999</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18576,7 +17776,7 @@
         <v>-6703.887692789999</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18609,7 +17809,7 @@
         <v>-6640.474750779999</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18642,7 +17842,7 @@
         <v>-7374.706491579999</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18675,7 +17875,7 @@
         <v>-7374.706491579999</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18708,7 +17908,7 @@
         <v>-6607.925791579999</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18741,7 +17941,7 @@
         <v>-6557.094291579999</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18774,7 +17974,7 @@
         <v>-6557.094291579999</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18807,7 +18007,7 @@
         <v>-6976.906991579999</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18840,7 +18040,7 @@
         <v>-6976.906991579999</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18873,7 +18073,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18906,7 +18106,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18939,7 +18139,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18972,7 +18172,7 @@
         <v>-6162.734941969999</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19005,7 +18205,7 @@
         <v>-5550.474441969999</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19038,7 +18238,7 @@
         <v>-5348.79524197</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19071,7 +18271,7 @@
         <v>-5757.245141969999</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19104,7 +18304,7 @@
         <v>-5780.806141969999</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19137,7 +18337,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19170,7 +18370,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19203,7 +18403,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19236,7 +18436,7 @@
         <v>-5033.310962669999</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19269,7 +18469,7 @@
         <v>-5116.673762669999</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19302,7 +18502,7 @@
         <v>-5305.071062669998</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19335,7 +18535,7 @@
         <v>-5305.071062669998</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19368,7 +18568,7 @@
         <v>-5360.095662669998</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19401,7 +18601,7 @@
         <v>-5432.095662669998</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19434,7 +18634,7 @@
         <v>-5432.095662669998</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19467,7 +18667,7 @@
         <v>-5442.095662669998</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19500,7 +18700,7 @@
         <v>-5442.095662669998</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19533,7 +18733,7 @@
         <v>-5392.756762669998</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19566,7 +18766,7 @@
         <v>-5392.756762669998</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19599,7 +18799,7 @@
         <v>-5754.993462669999</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19632,7 +18832,7 @@
         <v>-5754.943462669999</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19665,7 +18865,7 @@
         <v>-5885.535262669999</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19698,7 +18898,7 @@
         <v>-6028.652762669999</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19731,7 +18931,7 @@
         <v>-6028.652762669999</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19764,7 +18964,7 @@
         <v>-6891.262862669999</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19797,7 +18997,7 @@
         <v>-6635.978762669999</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19830,7 +19030,7 @@
         <v>-6619.788762669999</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19863,7 +19063,7 @@
         <v>-6619.788762669999</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19896,7 +19096,7 @@
         <v>-6619.788762669999</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19929,7 +19129,7 @@
         <v>-6499.881262669999</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19962,7 +19162,7 @@
         <v>-6256.951262669999</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19995,7 +19195,7 @@
         <v>-6256.951262669999</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20028,7 +19228,7 @@
         <v>-6139.305562669999</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20061,7 +19261,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20094,7 +19294,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20127,7 +19327,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -20160,7 +19360,7 @@
         <v>-6142.809762669999</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -20193,7 +19393,7 @@
         <v>-6419.347362669999</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -20226,7 +19426,7 @@
         <v>-6516.773962669999</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -20259,7 +19459,7 @@
         <v>-6936.652317749998</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -20292,7 +19492,7 @@
         <v>-8091.783817749998</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20325,7 +19525,7 @@
         <v>-7926.547617749998</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -20358,7 +19558,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -20391,7 +19591,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -20424,7 +19624,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -20457,7 +19657,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -20490,7 +19690,7 @@
         <v>-7730.396007789997</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -20523,7 +19723,7 @@
         <v>-7312.181707789998</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -20556,7 +19756,7 @@
         <v>-7221.781707789998</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -20589,7 +19789,7 @@
         <v>-6954.590007789998</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -20622,7 +19822,7 @@
         <v>-6907.559807789998</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20655,7 +19855,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20688,7 +19888,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20721,7 +19921,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20754,7 +19954,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20787,7 +19987,7 @@
         <v>-4289.287307789998</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20820,7 +20020,7 @@
         <v>-4408.247307789998</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20853,7 +20053,7 @@
         <v>-4408.197307789997</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20886,7 +20086,7 @@
         <v>-4872.480507789997</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20919,7 +20119,7 @@
         <v>-5024.627607789997</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20952,7 +20152,7 @@
         <v>-5236.026807789997</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20985,7 +20185,7 @@
         <v>-5341.131407789997</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21018,7 +20218,7 @@
         <v>-5882.269107789997</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21051,7 +20251,7 @@
         <v>-5606.511307789997</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21084,7 +20284,7 @@
         <v>-5606.511307789997</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21117,7 +20317,7 @@
         <v>-5606.511307789997</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -21150,7 +20350,7 @@
         <v>-5776.720007789997</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21183,7 +20383,7 @@
         <v>-5776.720007789997</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -21216,7 +20416,7 @@
         <v>-5763.720007789997</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21249,7 +20449,7 @@
         <v>-5792.720007789997</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21282,7 +20482,7 @@
         <v>-5679.720007789997</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21315,7 +20515,7 @@
         <v>-5666.539185179997</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21348,7 +20548,7 @@
         <v>-5666.539185179997</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21381,7 +20581,7 @@
         <v>-5681.545285179996</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21414,7 +20614,7 @@
         <v>-5627.654085179996</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21447,7 +20647,7 @@
         <v>-5620.349385179997</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21480,7 +20680,7 @@
         <v>-5620.349385179997</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -21513,7 +20713,7 @@
         <v>-5627.417585179996</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -21546,7 +20746,7 @@
         <v>-5628.417585179996</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -21579,7 +20779,7 @@
         <v>-5624.876185179996</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -21612,7 +20812,7 @@
         <v>-5624.876185179996</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -21645,7 +20845,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -21678,7 +20878,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -21711,7 +20911,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -21744,7 +20944,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21810,7 +21010,7 @@
         <v>-5682.660017489997</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21942,7 +21142,7 @@
         <v>-5357.116417489996</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22041,7 +21241,7 @@
         <v>-5490.096917489996</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22074,7 +21274,7 @@
         <v>-5852.933417489997</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22107,7 +21307,7 @@
         <v>-5252.002817489997</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22140,7 +21340,7 @@
         <v>-5252.002817489997</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22173,7 +21373,7 @@
         <v>-5316.721917489997</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22206,7 +21406,7 @@
         <v>-5294.904317489997</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22239,7 +21439,7 @@
         <v>-5292.563517489997</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22272,7 +21472,7 @@
         <v>-5294.063517489997</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22305,7 +21505,7 @@
         <v>-5244.063517489997</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22338,7 +21538,7 @@
         <v>-5173.005517489997</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22371,7 +21571,7 @@
         <v>-4929.019827309997</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22404,7 +21604,7 @@
         <v>-4929.019827309997</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22437,7 +21637,7 @@
         <v>-5052.279827309997</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22470,7 +21670,7 @@
         <v>-5127.464627309997</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22503,7 +21703,7 @@
         <v>-5183.528027309997</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22536,7 +21736,7 @@
         <v>-5152.780427309997</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22569,7 +21769,7 @@
         <v>-6345.098427309998</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22602,7 +21802,7 @@
         <v>-6975.819727309998</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22635,7 +21835,7 @@
         <v>-7279.221427309998</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22668,7 +21868,7 @@
         <v>-7234.787127309998</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22701,7 +21901,7 @@
         <v>-7234.787127309998</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22734,7 +21934,7 @@
         <v>-7615.011427309998</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -22767,7 +21967,7 @@
         <v>-7615.011427309998</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22800,7 +22000,7 @@
         <v>-7090.951227309998</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22833,7 +22033,7 @@
         <v>-7090.951227309998</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22866,7 +22066,7 @@
         <v>-6488.644027309998</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22899,7 +22099,7 @@
         <v>-6529.645527309998</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22932,7 +22132,7 @@
         <v>-6526.453927309998</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22965,7 +22165,7 @@
         <v>-6526.453927309998</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22998,7 +22198,7 @@
         <v>-6468.050027309998</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -28872,14 +28072,10 @@
         <v>-17455.08612155</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
-      </c>
-      <c r="I839" t="n">
-        <v>12590</v>
-      </c>
-      <c r="J839" t="n">
-        <v>12590</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
@@ -28909,19 +28105,11 @@
         <v>-17455.08612155</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
-      </c>
-      <c r="I840" t="n">
-        <v>12640</v>
-      </c>
-      <c r="J840" t="n">
-        <v>12590</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28953,14 +28141,8 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>12590</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28989,14 +28171,10 @@
         <v>-17052.83982155</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
-      </c>
-      <c r="I842" t="n">
-        <v>12670</v>
-      </c>
-      <c r="J842" t="n">
-        <v>12670</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
@@ -29026,19 +28204,11 @@
         <v>-17052.83982155</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
-      </c>
-      <c r="I843" t="n">
-        <v>12670</v>
-      </c>
-      <c r="J843" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29070,1389 +28240,1173 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
+      <c r="L844" t="n">
+        <v>1</v>
+      </c>
+      <c r="M844" t="inlineStr"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="n">
         <v>12670</v>
       </c>
-      <c r="K844" t="inlineStr">
+      <c r="C845" t="n">
+        <v>12620</v>
+      </c>
+      <c r="D845" t="n">
+        <v>12670</v>
+      </c>
+      <c r="E845" t="n">
+        <v>12620</v>
+      </c>
+      <c r="F845" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="G845" t="n">
+        <v>-17036.72052155</v>
+      </c>
+      <c r="H845" t="n">
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
+      <c r="L845" t="n">
+        <v>1</v>
+      </c>
+      <c r="M845" t="inlineStr"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="n">
+        <v>12620</v>
+      </c>
+      <c r="C846" t="n">
+        <v>12600</v>
+      </c>
+      <c r="D846" t="n">
+        <v>12620</v>
+      </c>
+      <c r="E846" t="n">
+        <v>12600</v>
+      </c>
+      <c r="F846" t="n">
+        <v>640.0088</v>
+      </c>
+      <c r="G846" t="n">
+        <v>-17676.72932155</v>
+      </c>
+      <c r="H846" t="n">
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
+      <c r="L846" t="n">
+        <v>1</v>
+      </c>
+      <c r="M846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C847" t="n">
+        <v>12600</v>
+      </c>
+      <c r="D847" t="n">
+        <v>12600</v>
+      </c>
+      <c r="E847" t="n">
+        <v>12600</v>
+      </c>
+      <c r="F847" t="n">
+        <v>0.6455</v>
+      </c>
+      <c r="G847" t="n">
+        <v>-17676.72932155</v>
+      </c>
+      <c r="H847" t="n">
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
+      <c r="L847" t="n">
+        <v>1</v>
+      </c>
+      <c r="M847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C848" t="n">
+        <v>12590</v>
+      </c>
+      <c r="D848" t="n">
+        <v>12600</v>
+      </c>
+      <c r="E848" t="n">
+        <v>12590</v>
+      </c>
+      <c r="F848" t="n">
+        <v>71.5082</v>
+      </c>
+      <c r="G848" t="n">
+        <v>-17748.23752155</v>
+      </c>
+      <c r="H848" t="n">
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
+      <c r="L848" t="n">
+        <v>1</v>
+      </c>
+      <c r="M848" t="inlineStr"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="n">
+        <v>12580</v>
+      </c>
+      <c r="C849" t="n">
+        <v>12490</v>
+      </c>
+      <c r="D849" t="n">
+        <v>12580</v>
+      </c>
+      <c r="E849" t="n">
+        <v>12490</v>
+      </c>
+      <c r="F849" t="n">
+        <v>415.0724</v>
+      </c>
+      <c r="G849" t="n">
+        <v>-18163.30992155</v>
+      </c>
+      <c r="H849" t="n">
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
+      <c r="L849" t="n">
+        <v>1</v>
+      </c>
+      <c r="M849" t="inlineStr"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="n">
+        <v>12530</v>
+      </c>
+      <c r="C850" t="n">
+        <v>12530</v>
+      </c>
+      <c r="D850" t="n">
+        <v>12530</v>
+      </c>
+      <c r="E850" t="n">
+        <v>12530</v>
+      </c>
+      <c r="F850" t="n">
+        <v>32.4953</v>
+      </c>
+      <c r="G850" t="n">
+        <v>-18130.81462155001</v>
+      </c>
+      <c r="H850" t="n">
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr"/>
+      <c r="L850" t="n">
+        <v>1</v>
+      </c>
+      <c r="M850" t="inlineStr"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="n">
+        <v>12590</v>
+      </c>
+      <c r="C851" t="n">
+        <v>12640</v>
+      </c>
+      <c r="D851" t="n">
+        <v>12640</v>
+      </c>
+      <c r="E851" t="n">
+        <v>12590</v>
+      </c>
+      <c r="F851" t="n">
+        <v>436.705</v>
+      </c>
+      <c r="G851" t="n">
+        <v>-17694.10962155</v>
+      </c>
+      <c r="H851" t="n">
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr"/>
+      <c r="L851" t="n">
+        <v>1</v>
+      </c>
+      <c r="M851" t="inlineStr"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="n">
+        <v>12660</v>
+      </c>
+      <c r="C852" t="n">
+        <v>12610</v>
+      </c>
+      <c r="D852" t="n">
+        <v>12660</v>
+      </c>
+      <c r="E852" t="n">
+        <v>12610</v>
+      </c>
+      <c r="F852" t="n">
+        <v>27</v>
+      </c>
+      <c r="G852" t="n">
+        <v>-17721.10962155</v>
+      </c>
+      <c r="H852" t="n">
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr"/>
+      <c r="L852" t="n">
+        <v>1</v>
+      </c>
+      <c r="M852" t="inlineStr"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="n">
+        <v>12630</v>
+      </c>
+      <c r="C853" t="n">
+        <v>12660</v>
+      </c>
+      <c r="D853" t="n">
+        <v>12660</v>
+      </c>
+      <c r="E853" t="n">
+        <v>12630</v>
+      </c>
+      <c r="F853" t="n">
+        <v>796.0403</v>
+      </c>
+      <c r="G853" t="n">
+        <v>-16925.06932155</v>
+      </c>
+      <c r="H853" t="n">
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
+      <c r="J853" t="inlineStr"/>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="n">
+        <v>1</v>
+      </c>
+      <c r="M853" t="inlineStr"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="n">
+        <v>12660</v>
+      </c>
+      <c r="C854" t="n">
+        <v>12660</v>
+      </c>
+      <c r="D854" t="n">
+        <v>12660</v>
+      </c>
+      <c r="E854" t="n">
+        <v>12660</v>
+      </c>
+      <c r="F854" t="n">
+        <v>145.7389</v>
+      </c>
+      <c r="G854" t="n">
+        <v>-16925.06932155</v>
+      </c>
+      <c r="H854" t="n">
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
+      <c r="K854" t="inlineStr"/>
+      <c r="L854" t="n">
+        <v>1</v>
+      </c>
+      <c r="M854" t="inlineStr"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="n">
+        <v>12660</v>
+      </c>
+      <c r="C855" t="n">
+        <v>12660</v>
+      </c>
+      <c r="D855" t="n">
+        <v>12660</v>
+      </c>
+      <c r="E855" t="n">
+        <v>12660</v>
+      </c>
+      <c r="F855" t="n">
+        <v>22</v>
+      </c>
+      <c r="G855" t="n">
+        <v>-16925.06932155</v>
+      </c>
+      <c r="H855" t="n">
+        <v>0</v>
+      </c>
+      <c r="I855" t="inlineStr"/>
+      <c r="J855" t="inlineStr"/>
+      <c r="K855" t="inlineStr"/>
+      <c r="L855" t="n">
+        <v>1</v>
+      </c>
+      <c r="M855" t="inlineStr"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="n">
+        <v>12660</v>
+      </c>
+      <c r="C856" t="n">
+        <v>12620</v>
+      </c>
+      <c r="D856" t="n">
+        <v>12660</v>
+      </c>
+      <c r="E856" t="n">
+        <v>12620</v>
+      </c>
+      <c r="F856" t="n">
+        <v>432.8821</v>
+      </c>
+      <c r="G856" t="n">
+        <v>-17357.95142155</v>
+      </c>
+      <c r="H856" t="n">
+        <v>0</v>
+      </c>
+      <c r="I856" t="inlineStr"/>
+      <c r="J856" t="inlineStr"/>
+      <c r="K856" t="inlineStr"/>
+      <c r="L856" t="n">
+        <v>1</v>
+      </c>
+      <c r="M856" t="inlineStr"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="n">
+        <v>12620</v>
+      </c>
+      <c r="C857" t="n">
+        <v>12600</v>
+      </c>
+      <c r="D857" t="n">
+        <v>12650</v>
+      </c>
+      <c r="E857" t="n">
+        <v>12600</v>
+      </c>
+      <c r="F857" t="n">
+        <v>78.65000000000001</v>
+      </c>
+      <c r="G857" t="n">
+        <v>-17436.60142155</v>
+      </c>
+      <c r="H857" t="n">
+        <v>0</v>
+      </c>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr"/>
+      <c r="L857" t="n">
+        <v>1</v>
+      </c>
+      <c r="M857" t="inlineStr"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C858" t="n">
+        <v>12620</v>
+      </c>
+      <c r="D858" t="n">
+        <v>12620</v>
+      </c>
+      <c r="E858" t="n">
+        <v>12550</v>
+      </c>
+      <c r="F858" t="n">
+        <v>42</v>
+      </c>
+      <c r="G858" t="n">
+        <v>-17394.60142155</v>
+      </c>
+      <c r="H858" t="n">
+        <v>0</v>
+      </c>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr"/>
+      <c r="L858" t="n">
+        <v>1</v>
+      </c>
+      <c r="M858" t="inlineStr"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="n">
+        <v>12610</v>
+      </c>
+      <c r="C859" t="n">
+        <v>12610</v>
+      </c>
+      <c r="D859" t="n">
+        <v>12610</v>
+      </c>
+      <c r="E859" t="n">
+        <v>12610</v>
+      </c>
+      <c r="F859" t="n">
+        <v>0.45995241</v>
+      </c>
+      <c r="G859" t="n">
+        <v>-17395.06137396</v>
+      </c>
+      <c r="H859" t="n">
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="inlineStr"/>
+      <c r="K859" t="inlineStr"/>
+      <c r="L859" t="n">
+        <v>1</v>
+      </c>
+      <c r="M859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="n">
+        <v>12610</v>
+      </c>
+      <c r="C860" t="n">
+        <v>12640</v>
+      </c>
+      <c r="D860" t="n">
+        <v>12640</v>
+      </c>
+      <c r="E860" t="n">
+        <v>12610</v>
+      </c>
+      <c r="F860" t="n">
+        <v>20</v>
+      </c>
+      <c r="G860" t="n">
+        <v>-17375.06137396</v>
+      </c>
+      <c r="H860" t="n">
+        <v>0</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="inlineStr"/>
+      <c r="K860" t="inlineStr"/>
+      <c r="L860" t="n">
+        <v>1</v>
+      </c>
+      <c r="M860" t="inlineStr"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="n">
+        <v>12580</v>
+      </c>
+      <c r="C861" t="n">
+        <v>12580</v>
+      </c>
+      <c r="D861" t="n">
+        <v>12580</v>
+      </c>
+      <c r="E861" t="n">
+        <v>12580</v>
+      </c>
+      <c r="F861" t="n">
+        <v>4.5111</v>
+      </c>
+      <c r="G861" t="n">
+        <v>-17379.57247396</v>
+      </c>
+      <c r="H861" t="n">
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
+      <c r="J861" t="inlineStr"/>
+      <c r="K861" t="inlineStr"/>
+      <c r="L861" t="n">
+        <v>1</v>
+      </c>
+      <c r="M861" t="inlineStr"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="n">
+        <v>12570</v>
+      </c>
+      <c r="C862" t="n">
+        <v>12620</v>
+      </c>
+      <c r="D862" t="n">
+        <v>12620</v>
+      </c>
+      <c r="E862" t="n">
+        <v>12550</v>
+      </c>
+      <c r="F862" t="n">
+        <v>136.2359</v>
+      </c>
+      <c r="G862" t="n">
+        <v>-17243.33657396</v>
+      </c>
+      <c r="H862" t="n">
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="inlineStr"/>
+      <c r="K862" t="inlineStr"/>
+      <c r="L862" t="n">
+        <v>1</v>
+      </c>
+      <c r="M862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="n">
+        <v>12590</v>
+      </c>
+      <c r="C863" t="n">
+        <v>12590</v>
+      </c>
+      <c r="D863" t="n">
+        <v>12590</v>
+      </c>
+      <c r="E863" t="n">
+        <v>12590</v>
+      </c>
+      <c r="F863" t="n">
+        <v>10.0607</v>
+      </c>
+      <c r="G863" t="n">
+        <v>-17253.39727396001</v>
+      </c>
+      <c r="H863" t="n">
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr"/>
+      <c r="L863" t="n">
+        <v>1</v>
+      </c>
+      <c r="M863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="n">
+        <v>12590</v>
+      </c>
+      <c r="C864" t="n">
+        <v>12590</v>
+      </c>
+      <c r="D864" t="n">
+        <v>12590</v>
+      </c>
+      <c r="E864" t="n">
+        <v>12590</v>
+      </c>
+      <c r="F864" t="n">
+        <v>10</v>
+      </c>
+      <c r="G864" t="n">
+        <v>-17253.39727396001</v>
+      </c>
+      <c r="H864" t="n">
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr"/>
+      <c r="L864" t="n">
+        <v>1</v>
+      </c>
+      <c r="M864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="n">
+        <v>12600</v>
+      </c>
+      <c r="C865" t="n">
+        <v>12600</v>
+      </c>
+      <c r="D865" t="n">
+        <v>12600</v>
+      </c>
+      <c r="E865" t="n">
+        <v>12600</v>
+      </c>
+      <c r="F865" t="n">
+        <v>8.4024</v>
+      </c>
+      <c r="G865" t="n">
+        <v>-17244.99487396001</v>
+      </c>
+      <c r="H865" t="n">
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="n">
+        <v>1</v>
+      </c>
+      <c r="M865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="n">
+        <v>12590</v>
+      </c>
+      <c r="C866" t="n">
+        <v>12590</v>
+      </c>
+      <c r="D866" t="n">
+        <v>12590</v>
+      </c>
+      <c r="E866" t="n">
+        <v>12590</v>
+      </c>
+      <c r="F866" t="n">
+        <v>14.8905</v>
+      </c>
+      <c r="G866" t="n">
+        <v>-17259.88537396001</v>
+      </c>
+      <c r="H866" t="n">
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr"/>
+      <c r="L866" t="n">
+        <v>1</v>
+      </c>
+      <c r="M866" t="inlineStr"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="n">
+        <v>12540</v>
+      </c>
+      <c r="C867" t="n">
+        <v>12540</v>
+      </c>
+      <c r="D867" t="n">
+        <v>12540</v>
+      </c>
+      <c r="E867" t="n">
+        <v>12540</v>
+      </c>
+      <c r="F867" t="n">
+        <v>2.7708</v>
+      </c>
+      <c r="G867" t="n">
+        <v>-17262.65617396001</v>
+      </c>
+      <c r="H867" t="n">
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
+      <c r="J867" t="inlineStr"/>
+      <c r="K867" t="inlineStr"/>
+      <c r="L867" t="n">
+        <v>1</v>
+      </c>
+      <c r="M867" t="inlineStr"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="n">
+        <v>12540</v>
+      </c>
+      <c r="C868" t="n">
+        <v>12530</v>
+      </c>
+      <c r="D868" t="n">
+        <v>12540</v>
+      </c>
+      <c r="E868" t="n">
+        <v>12500</v>
+      </c>
+      <c r="F868" t="n">
+        <v>305.55</v>
+      </c>
+      <c r="G868" t="n">
+        <v>-17568.20617396001</v>
+      </c>
+      <c r="H868" t="n">
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
+      <c r="J868" t="inlineStr"/>
+      <c r="K868" t="inlineStr"/>
+      <c r="L868" t="n">
+        <v>1</v>
+      </c>
+      <c r="M868" t="inlineStr"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="n">
+        <v>12530</v>
+      </c>
+      <c r="C869" t="n">
+        <v>12590</v>
+      </c>
+      <c r="D869" t="n">
+        <v>12590</v>
+      </c>
+      <c r="E869" t="n">
+        <v>12530</v>
+      </c>
+      <c r="F869" t="n">
+        <v>63</v>
+      </c>
+      <c r="G869" t="n">
+        <v>-17505.20617396001</v>
+      </c>
+      <c r="H869" t="n">
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr"/>
+      <c r="L869" t="n">
+        <v>1</v>
+      </c>
+      <c r="M869" t="inlineStr"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="n">
+        <v>12540</v>
+      </c>
+      <c r="C870" t="n">
+        <v>12480</v>
+      </c>
+      <c r="D870" t="n">
+        <v>12540</v>
+      </c>
+      <c r="E870" t="n">
+        <v>12470</v>
+      </c>
+      <c r="F870" t="n">
+        <v>290.9886</v>
+      </c>
+      <c r="G870" t="n">
+        <v>-17796.19477396001</v>
+      </c>
+      <c r="H870" t="n">
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr"/>
+      <c r="L870" t="n">
+        <v>1</v>
+      </c>
+      <c r="M870" t="inlineStr"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="n">
+        <v>12480</v>
+      </c>
+      <c r="C871" t="n">
+        <v>12520</v>
+      </c>
+      <c r="D871" t="n">
+        <v>12520</v>
+      </c>
+      <c r="E871" t="n">
+        <v>12470</v>
+      </c>
+      <c r="F871" t="n">
+        <v>177.0916</v>
+      </c>
+      <c r="G871" t="n">
+        <v>-17619.10317396001</v>
+      </c>
+      <c r="H871" t="n">
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
+      <c r="J871" t="inlineStr"/>
+      <c r="K871" t="inlineStr"/>
+      <c r="L871" t="n">
+        <v>1</v>
+      </c>
+      <c r="M871" t="inlineStr"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="n">
+        <v>12490</v>
+      </c>
+      <c r="C872" t="n">
+        <v>12470</v>
+      </c>
+      <c r="D872" t="n">
+        <v>12540</v>
+      </c>
+      <c r="E872" t="n">
+        <v>12470</v>
+      </c>
+      <c r="F872" t="n">
+        <v>305.8546</v>
+      </c>
+      <c r="G872" t="n">
+        <v>-17924.95777396001</v>
+      </c>
+      <c r="H872" t="n">
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
+      <c r="J872" t="inlineStr"/>
+      <c r="K872" t="inlineStr"/>
+      <c r="L872" t="n">
+        <v>1</v>
+      </c>
+      <c r="M872" t="inlineStr"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="n">
+        <v>12480</v>
+      </c>
+      <c r="C873" t="n">
+        <v>12480</v>
+      </c>
+      <c r="D873" t="n">
+        <v>12480</v>
+      </c>
+      <c r="E873" t="n">
+        <v>12480</v>
+      </c>
+      <c r="F873" t="n">
+        <v>11.546</v>
+      </c>
+      <c r="G873" t="n">
+        <v>-17913.41177396001</v>
+      </c>
+      <c r="H873" t="n">
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
+      <c r="J873" t="inlineStr"/>
+      <c r="K873" t="inlineStr"/>
+      <c r="L873" t="n">
+        <v>1</v>
+      </c>
+      <c r="M873" t="inlineStr"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="n">
+        <v>12490</v>
+      </c>
+      <c r="C874" t="n">
+        <v>12490</v>
+      </c>
+      <c r="D874" t="n">
+        <v>12490</v>
+      </c>
+      <c r="E874" t="n">
+        <v>12490</v>
+      </c>
+      <c r="F874" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="G874" t="n">
+        <v>-17909.43177396001</v>
+      </c>
+      <c r="H874" t="n">
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
+      <c r="J874" t="inlineStr"/>
+      <c r="K874" t="inlineStr"/>
+      <c r="L874" t="n">
+        <v>1</v>
+      </c>
+      <c r="M874" t="inlineStr"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="n">
+        <v>12490</v>
+      </c>
+      <c r="C875" t="n">
+        <v>12470</v>
+      </c>
+      <c r="D875" t="n">
+        <v>12490</v>
+      </c>
+      <c r="E875" t="n">
+        <v>12470</v>
+      </c>
+      <c r="F875" t="n">
+        <v>382.741</v>
+      </c>
+      <c r="G875" t="n">
+        <v>-18292.17277396001</v>
+      </c>
+      <c r="H875" t="n">
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr"/>
+      <c r="L875" t="n">
+        <v>1</v>
+      </c>
+      <c r="M875" t="inlineStr"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="n">
+        <v>12470</v>
+      </c>
+      <c r="C876" t="n">
+        <v>12480</v>
+      </c>
+      <c r="D876" t="n">
+        <v>12480</v>
+      </c>
+      <c r="E876" t="n">
+        <v>12420</v>
+      </c>
+      <c r="F876" t="n">
+        <v>184.8275</v>
+      </c>
+      <c r="G876" t="n">
+        <v>-18107.34527396001</v>
+      </c>
+      <c r="H876" t="n">
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr"/>
+      <c r="L876" t="n">
+        <v>1</v>
+      </c>
+      <c r="M876" t="inlineStr"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="n">
+        <v>12480</v>
+      </c>
+      <c r="C877" t="n">
+        <v>12490</v>
+      </c>
+      <c r="D877" t="n">
+        <v>12490</v>
+      </c>
+      <c r="E877" t="n">
+        <v>12480</v>
+      </c>
+      <c r="F877" t="n">
+        <v>36.6517</v>
+      </c>
+      <c r="G877" t="n">
+        <v>-18070.69357396001</v>
+      </c>
+      <c r="H877" t="n">
+        <v>0</v>
+      </c>
+      <c r="I877" t="inlineStr"/>
+      <c r="J877" t="inlineStr"/>
+      <c r="K877" t="inlineStr"/>
+      <c r="L877" t="n">
+        <v>1</v>
+      </c>
+      <c r="M877" t="inlineStr"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="n">
+        <v>12480</v>
+      </c>
+      <c r="C878" t="n">
+        <v>12480</v>
+      </c>
+      <c r="D878" t="n">
+        <v>12480</v>
+      </c>
+      <c r="E878" t="n">
+        <v>12480</v>
+      </c>
+      <c r="F878" t="n">
+        <v>51.4165</v>
+      </c>
+      <c r="G878" t="n">
+        <v>-18122.11007396001</v>
+      </c>
+      <c r="H878" t="n">
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>12490</v>
+      </c>
+      <c r="J878" t="n">
+        <v>12490</v>
+      </c>
+      <c r="K878" t="inlineStr"/>
+      <c r="L878" t="n">
+        <v>1</v>
+      </c>
+      <c r="M878" t="inlineStr"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="n">
+        <v>12450</v>
+      </c>
+      <c r="C879" t="n">
+        <v>12430</v>
+      </c>
+      <c r="D879" t="n">
+        <v>12450</v>
+      </c>
+      <c r="E879" t="n">
+        <v>12430</v>
+      </c>
+      <c r="F879" t="n">
+        <v>294.4879</v>
+      </c>
+      <c r="G879" t="n">
+        <v>-18416.59797396001</v>
+      </c>
+      <c r="H879" t="n">
+        <v>0</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>12490</v>
+      </c>
+      <c r="K879" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L844" t="n">
-        <v>1</v>
-      </c>
-      <c r="M844" t="inlineStr"/>
-    </row>
-    <row r="845">
-      <c r="A845" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B845" t="n">
-        <v>12670</v>
-      </c>
-      <c r="C845" t="n">
-        <v>12620</v>
-      </c>
-      <c r="D845" t="n">
-        <v>12670</v>
-      </c>
-      <c r="E845" t="n">
-        <v>12620</v>
-      </c>
-      <c r="F845" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="G845" t="n">
-        <v>-17036.72052155</v>
-      </c>
-      <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L845" t="n">
-        <v>1</v>
-      </c>
-      <c r="M845" t="inlineStr"/>
-    </row>
-    <row r="846">
-      <c r="A846" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B846" t="n">
-        <v>12620</v>
-      </c>
-      <c r="C846" t="n">
-        <v>12600</v>
-      </c>
-      <c r="D846" t="n">
-        <v>12620</v>
-      </c>
-      <c r="E846" t="n">
-        <v>12600</v>
-      </c>
-      <c r="F846" t="n">
-        <v>640.0088</v>
-      </c>
-      <c r="G846" t="n">
-        <v>-17676.72932155</v>
-      </c>
-      <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L846" t="n">
-        <v>1</v>
-      </c>
-      <c r="M846" t="inlineStr"/>
-    </row>
-    <row r="847">
-      <c r="A847" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B847" t="n">
-        <v>12600</v>
-      </c>
-      <c r="C847" t="n">
-        <v>12600</v>
-      </c>
-      <c r="D847" t="n">
-        <v>12600</v>
-      </c>
-      <c r="E847" t="n">
-        <v>12600</v>
-      </c>
-      <c r="F847" t="n">
-        <v>0.6455</v>
-      </c>
-      <c r="G847" t="n">
-        <v>-17676.72932155</v>
-      </c>
-      <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L847" t="n">
-        <v>1</v>
-      </c>
-      <c r="M847" t="inlineStr"/>
-    </row>
-    <row r="848">
-      <c r="A848" s="1" t="n">
-        <v>846</v>
-      </c>
-      <c r="B848" t="n">
-        <v>12600</v>
-      </c>
-      <c r="C848" t="n">
-        <v>12590</v>
-      </c>
-      <c r="D848" t="n">
-        <v>12600</v>
-      </c>
-      <c r="E848" t="n">
-        <v>12590</v>
-      </c>
-      <c r="F848" t="n">
-        <v>71.5082</v>
-      </c>
-      <c r="G848" t="n">
-        <v>-17748.23752155</v>
-      </c>
-      <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L848" t="n">
-        <v>1</v>
-      </c>
-      <c r="M848" t="inlineStr"/>
-    </row>
-    <row r="849">
-      <c r="A849" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B849" t="n">
-        <v>12580</v>
-      </c>
-      <c r="C849" t="n">
-        <v>12490</v>
-      </c>
-      <c r="D849" t="n">
-        <v>12580</v>
-      </c>
-      <c r="E849" t="n">
-        <v>12490</v>
-      </c>
-      <c r="F849" t="n">
-        <v>415.0724</v>
-      </c>
-      <c r="G849" t="n">
-        <v>-18163.30992155</v>
-      </c>
-      <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L849" t="n">
-        <v>1</v>
-      </c>
-      <c r="M849" t="inlineStr"/>
-    </row>
-    <row r="850">
-      <c r="A850" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B850" t="n">
-        <v>12530</v>
-      </c>
-      <c r="C850" t="n">
-        <v>12530</v>
-      </c>
-      <c r="D850" t="n">
-        <v>12530</v>
-      </c>
-      <c r="E850" t="n">
-        <v>12530</v>
-      </c>
-      <c r="F850" t="n">
-        <v>32.4953</v>
-      </c>
-      <c r="G850" t="n">
-        <v>-18130.81462155001</v>
-      </c>
-      <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K850" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L850" t="n">
-        <v>1</v>
-      </c>
-      <c r="M850" t="inlineStr"/>
-    </row>
-    <row r="851">
-      <c r="A851" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B851" t="n">
-        <v>12590</v>
-      </c>
-      <c r="C851" t="n">
-        <v>12640</v>
-      </c>
-      <c r="D851" t="n">
-        <v>12640</v>
-      </c>
-      <c r="E851" t="n">
-        <v>12590</v>
-      </c>
-      <c r="F851" t="n">
-        <v>436.705</v>
-      </c>
-      <c r="G851" t="n">
-        <v>-17694.10962155</v>
-      </c>
-      <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K851" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L851" t="n">
-        <v>1</v>
-      </c>
-      <c r="M851" t="inlineStr"/>
-    </row>
-    <row r="852">
-      <c r="A852" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B852" t="n">
-        <v>12660</v>
-      </c>
-      <c r="C852" t="n">
-        <v>12610</v>
-      </c>
-      <c r="D852" t="n">
-        <v>12660</v>
-      </c>
-      <c r="E852" t="n">
-        <v>12610</v>
-      </c>
-      <c r="F852" t="n">
-        <v>27</v>
-      </c>
-      <c r="G852" t="n">
-        <v>-17721.10962155</v>
-      </c>
-      <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K852" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L852" t="n">
-        <v>1</v>
-      </c>
-      <c r="M852" t="inlineStr"/>
-    </row>
-    <row r="853">
-      <c r="A853" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B853" t="n">
-        <v>12630</v>
-      </c>
-      <c r="C853" t="n">
-        <v>12660</v>
-      </c>
-      <c r="D853" t="n">
-        <v>12660</v>
-      </c>
-      <c r="E853" t="n">
-        <v>12630</v>
-      </c>
-      <c r="F853" t="n">
-        <v>796.0403</v>
-      </c>
-      <c r="G853" t="n">
-        <v>-16925.06932155</v>
-      </c>
-      <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L853" t="n">
-        <v>1</v>
-      </c>
-      <c r="M853" t="inlineStr"/>
-    </row>
-    <row r="854">
-      <c r="A854" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B854" t="n">
-        <v>12660</v>
-      </c>
-      <c r="C854" t="n">
-        <v>12660</v>
-      </c>
-      <c r="D854" t="n">
-        <v>12660</v>
-      </c>
-      <c r="E854" t="n">
-        <v>12660</v>
-      </c>
-      <c r="F854" t="n">
-        <v>145.7389</v>
-      </c>
-      <c r="G854" t="n">
-        <v>-16925.06932155</v>
-      </c>
-      <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K854" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L854" t="n">
-        <v>1</v>
-      </c>
-      <c r="M854" t="inlineStr"/>
-    </row>
-    <row r="855">
-      <c r="A855" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B855" t="n">
-        <v>12660</v>
-      </c>
-      <c r="C855" t="n">
-        <v>12660</v>
-      </c>
-      <c r="D855" t="n">
-        <v>12660</v>
-      </c>
-      <c r="E855" t="n">
-        <v>12660</v>
-      </c>
-      <c r="F855" t="n">
-        <v>22</v>
-      </c>
-      <c r="G855" t="n">
-        <v>-16925.06932155</v>
-      </c>
-      <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K855" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L855" t="n">
-        <v>1</v>
-      </c>
-      <c r="M855" t="inlineStr"/>
-    </row>
-    <row r="856">
-      <c r="A856" s="1" t="n">
-        <v>854</v>
-      </c>
-      <c r="B856" t="n">
-        <v>12660</v>
-      </c>
-      <c r="C856" t="n">
-        <v>12620</v>
-      </c>
-      <c r="D856" t="n">
-        <v>12660</v>
-      </c>
-      <c r="E856" t="n">
-        <v>12620</v>
-      </c>
-      <c r="F856" t="n">
-        <v>432.8821</v>
-      </c>
-      <c r="G856" t="n">
-        <v>-17357.95142155</v>
-      </c>
-      <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K856" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L856" t="n">
-        <v>1</v>
-      </c>
-      <c r="M856" t="inlineStr"/>
-    </row>
-    <row r="857">
-      <c r="A857" s="1" t="n">
-        <v>855</v>
-      </c>
-      <c r="B857" t="n">
-        <v>12620</v>
-      </c>
-      <c r="C857" t="n">
-        <v>12600</v>
-      </c>
-      <c r="D857" t="n">
-        <v>12650</v>
-      </c>
-      <c r="E857" t="n">
-        <v>12600</v>
-      </c>
-      <c r="F857" t="n">
-        <v>78.65000000000001</v>
-      </c>
-      <c r="G857" t="n">
-        <v>-17436.60142155</v>
-      </c>
-      <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K857" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L857" t="n">
-        <v>1</v>
-      </c>
-      <c r="M857" t="inlineStr"/>
-    </row>
-    <row r="858">
-      <c r="A858" s="1" t="n">
-        <v>856</v>
-      </c>
-      <c r="B858" t="n">
-        <v>12600</v>
-      </c>
-      <c r="C858" t="n">
-        <v>12620</v>
-      </c>
-      <c r="D858" t="n">
-        <v>12620</v>
-      </c>
-      <c r="E858" t="n">
-        <v>12550</v>
-      </c>
-      <c r="F858" t="n">
-        <v>42</v>
-      </c>
-      <c r="G858" t="n">
-        <v>-17394.60142155</v>
-      </c>
-      <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K858" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L858" t="n">
-        <v>1</v>
-      </c>
-      <c r="M858" t="inlineStr"/>
-    </row>
-    <row r="859">
-      <c r="A859" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="B859" t="n">
-        <v>12610</v>
-      </c>
-      <c r="C859" t="n">
-        <v>12610</v>
-      </c>
-      <c r="D859" t="n">
-        <v>12610</v>
-      </c>
-      <c r="E859" t="n">
-        <v>12610</v>
-      </c>
-      <c r="F859" t="n">
-        <v>0.45995241</v>
-      </c>
-      <c r="G859" t="n">
-        <v>-17395.06137396</v>
-      </c>
-      <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K859" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L859" t="n">
-        <v>1</v>
-      </c>
-      <c r="M859" t="inlineStr"/>
-    </row>
-    <row r="860">
-      <c r="A860" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B860" t="n">
-        <v>12610</v>
-      </c>
-      <c r="C860" t="n">
-        <v>12640</v>
-      </c>
-      <c r="D860" t="n">
-        <v>12640</v>
-      </c>
-      <c r="E860" t="n">
-        <v>12610</v>
-      </c>
-      <c r="F860" t="n">
-        <v>20</v>
-      </c>
-      <c r="G860" t="n">
-        <v>-17375.06137396</v>
-      </c>
-      <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K860" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L860" t="n">
-        <v>1</v>
-      </c>
-      <c r="M860" t="inlineStr"/>
-    </row>
-    <row r="861">
-      <c r="A861" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="B861" t="n">
-        <v>12580</v>
-      </c>
-      <c r="C861" t="n">
-        <v>12580</v>
-      </c>
-      <c r="D861" t="n">
-        <v>12580</v>
-      </c>
-      <c r="E861" t="n">
-        <v>12580</v>
-      </c>
-      <c r="F861" t="n">
-        <v>4.5111</v>
-      </c>
-      <c r="G861" t="n">
-        <v>-17379.57247396</v>
-      </c>
-      <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K861" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L861" t="n">
-        <v>1</v>
-      </c>
-      <c r="M861" t="inlineStr"/>
-    </row>
-    <row r="862">
-      <c r="A862" s="1" t="n">
-        <v>860</v>
-      </c>
-      <c r="B862" t="n">
-        <v>12570</v>
-      </c>
-      <c r="C862" t="n">
-        <v>12620</v>
-      </c>
-      <c r="D862" t="n">
-        <v>12620</v>
-      </c>
-      <c r="E862" t="n">
-        <v>12550</v>
-      </c>
-      <c r="F862" t="n">
-        <v>136.2359</v>
-      </c>
-      <c r="G862" t="n">
-        <v>-17243.33657396</v>
-      </c>
-      <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K862" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L862" t="n">
-        <v>1</v>
-      </c>
-      <c r="M862" t="inlineStr"/>
-    </row>
-    <row r="863">
-      <c r="A863" s="1" t="n">
-        <v>861</v>
-      </c>
-      <c r="B863" t="n">
-        <v>12590</v>
-      </c>
-      <c r="C863" t="n">
-        <v>12590</v>
-      </c>
-      <c r="D863" t="n">
-        <v>12590</v>
-      </c>
-      <c r="E863" t="n">
-        <v>12590</v>
-      </c>
-      <c r="F863" t="n">
-        <v>10.0607</v>
-      </c>
-      <c r="G863" t="n">
-        <v>-17253.39727396001</v>
-      </c>
-      <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K863" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L863" t="n">
-        <v>1</v>
-      </c>
-      <c r="M863" t="inlineStr"/>
-    </row>
-    <row r="864">
-      <c r="A864" s="1" t="n">
-        <v>862</v>
-      </c>
-      <c r="B864" t="n">
-        <v>12590</v>
-      </c>
-      <c r="C864" t="n">
-        <v>12590</v>
-      </c>
-      <c r="D864" t="n">
-        <v>12590</v>
-      </c>
-      <c r="E864" t="n">
-        <v>12590</v>
-      </c>
-      <c r="F864" t="n">
-        <v>10</v>
-      </c>
-      <c r="G864" t="n">
-        <v>-17253.39727396001</v>
-      </c>
-      <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K864" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L864" t="n">
-        <v>1</v>
-      </c>
-      <c r="M864" t="inlineStr"/>
-    </row>
-    <row r="865">
-      <c r="A865" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="B865" t="n">
-        <v>12600</v>
-      </c>
-      <c r="C865" t="n">
-        <v>12600</v>
-      </c>
-      <c r="D865" t="n">
-        <v>12600</v>
-      </c>
-      <c r="E865" t="n">
-        <v>12600</v>
-      </c>
-      <c r="F865" t="n">
-        <v>8.4024</v>
-      </c>
-      <c r="G865" t="n">
-        <v>-17244.99487396001</v>
-      </c>
-      <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L865" t="n">
-        <v>1</v>
-      </c>
-      <c r="M865" t="inlineStr"/>
-    </row>
-    <row r="866">
-      <c r="A866" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B866" t="n">
-        <v>12590</v>
-      </c>
-      <c r="C866" t="n">
-        <v>12590</v>
-      </c>
-      <c r="D866" t="n">
-        <v>12590</v>
-      </c>
-      <c r="E866" t="n">
-        <v>12590</v>
-      </c>
-      <c r="F866" t="n">
-        <v>14.8905</v>
-      </c>
-      <c r="G866" t="n">
-        <v>-17259.88537396001</v>
-      </c>
-      <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K866" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L866" t="n">
-        <v>1</v>
-      </c>
-      <c r="M866" t="inlineStr"/>
-    </row>
-    <row r="867">
-      <c r="A867" s="1" t="n">
-        <v>865</v>
-      </c>
-      <c r="B867" t="n">
-        <v>12540</v>
-      </c>
-      <c r="C867" t="n">
-        <v>12540</v>
-      </c>
-      <c r="D867" t="n">
-        <v>12540</v>
-      </c>
-      <c r="E867" t="n">
-        <v>12540</v>
-      </c>
-      <c r="F867" t="n">
-        <v>2.7708</v>
-      </c>
-      <c r="G867" t="n">
-        <v>-17262.65617396001</v>
-      </c>
-      <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K867" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L867" t="n">
-        <v>1</v>
-      </c>
-      <c r="M867" t="inlineStr"/>
-    </row>
-    <row r="868">
-      <c r="A868" s="1" t="n">
-        <v>866</v>
-      </c>
-      <c r="B868" t="n">
-        <v>12540</v>
-      </c>
-      <c r="C868" t="n">
-        <v>12530</v>
-      </c>
-      <c r="D868" t="n">
-        <v>12540</v>
-      </c>
-      <c r="E868" t="n">
-        <v>12500</v>
-      </c>
-      <c r="F868" t="n">
-        <v>305.55</v>
-      </c>
-      <c r="G868" t="n">
-        <v>-17568.20617396001</v>
-      </c>
-      <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K868" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L868" t="n">
-        <v>1</v>
-      </c>
-      <c r="M868" t="inlineStr"/>
-    </row>
-    <row r="869">
-      <c r="A869" s="1" t="n">
-        <v>867</v>
-      </c>
-      <c r="B869" t="n">
-        <v>12530</v>
-      </c>
-      <c r="C869" t="n">
-        <v>12590</v>
-      </c>
-      <c r="D869" t="n">
-        <v>12590</v>
-      </c>
-      <c r="E869" t="n">
-        <v>12530</v>
-      </c>
-      <c r="F869" t="n">
-        <v>63</v>
-      </c>
-      <c r="G869" t="n">
-        <v>-17505.20617396001</v>
-      </c>
-      <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K869" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L869" t="n">
-        <v>1</v>
-      </c>
-      <c r="M869" t="inlineStr"/>
-    </row>
-    <row r="870">
-      <c r="A870" s="1" t="n">
-        <v>868</v>
-      </c>
-      <c r="B870" t="n">
-        <v>12540</v>
-      </c>
-      <c r="C870" t="n">
-        <v>12480</v>
-      </c>
-      <c r="D870" t="n">
-        <v>12540</v>
-      </c>
-      <c r="E870" t="n">
-        <v>12470</v>
-      </c>
-      <c r="F870" t="n">
-        <v>290.9886</v>
-      </c>
-      <c r="G870" t="n">
-        <v>-17796.19477396001</v>
-      </c>
-      <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K870" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L870" t="n">
-        <v>1</v>
-      </c>
-      <c r="M870" t="inlineStr"/>
-    </row>
-    <row r="871">
-      <c r="A871" s="1" t="n">
-        <v>869</v>
-      </c>
-      <c r="B871" t="n">
-        <v>12480</v>
-      </c>
-      <c r="C871" t="n">
-        <v>12520</v>
-      </c>
-      <c r="D871" t="n">
-        <v>12520</v>
-      </c>
-      <c r="E871" t="n">
-        <v>12470</v>
-      </c>
-      <c r="F871" t="n">
-        <v>177.0916</v>
-      </c>
-      <c r="G871" t="n">
-        <v>-17619.10317396001</v>
-      </c>
-      <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K871" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L871" t="n">
-        <v>1</v>
-      </c>
-      <c r="M871" t="inlineStr"/>
-    </row>
-    <row r="872">
-      <c r="A872" s="1" t="n">
-        <v>870</v>
-      </c>
-      <c r="B872" t="n">
-        <v>12490</v>
-      </c>
-      <c r="C872" t="n">
-        <v>12470</v>
-      </c>
-      <c r="D872" t="n">
-        <v>12540</v>
-      </c>
-      <c r="E872" t="n">
-        <v>12470</v>
-      </c>
-      <c r="F872" t="n">
-        <v>305.8546</v>
-      </c>
-      <c r="G872" t="n">
-        <v>-17924.95777396001</v>
-      </c>
-      <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K872" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L872" t="n">
-        <v>1</v>
-      </c>
-      <c r="M872" t="inlineStr"/>
-    </row>
-    <row r="873">
-      <c r="A873" s="1" t="n">
-        <v>871</v>
-      </c>
-      <c r="B873" t="n">
-        <v>12480</v>
-      </c>
-      <c r="C873" t="n">
-        <v>12480</v>
-      </c>
-      <c r="D873" t="n">
-        <v>12480</v>
-      </c>
-      <c r="E873" t="n">
-        <v>12480</v>
-      </c>
-      <c r="F873" t="n">
-        <v>11.546</v>
-      </c>
-      <c r="G873" t="n">
-        <v>-17913.41177396001</v>
-      </c>
-      <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K873" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L873" t="n">
-        <v>1</v>
-      </c>
-      <c r="M873" t="inlineStr"/>
-    </row>
-    <row r="874">
-      <c r="A874" s="1" t="n">
-        <v>872</v>
-      </c>
-      <c r="B874" t="n">
-        <v>12490</v>
-      </c>
-      <c r="C874" t="n">
-        <v>12490</v>
-      </c>
-      <c r="D874" t="n">
-        <v>12490</v>
-      </c>
-      <c r="E874" t="n">
-        <v>12490</v>
-      </c>
-      <c r="F874" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="G874" t="n">
-        <v>-17909.43177396001</v>
-      </c>
-      <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K874" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L874" t="n">
-        <v>1</v>
-      </c>
-      <c r="M874" t="inlineStr"/>
-    </row>
-    <row r="875">
-      <c r="A875" s="1" t="n">
-        <v>873</v>
-      </c>
-      <c r="B875" t="n">
-        <v>12490</v>
-      </c>
-      <c r="C875" t="n">
-        <v>12470</v>
-      </c>
-      <c r="D875" t="n">
-        <v>12490</v>
-      </c>
-      <c r="E875" t="n">
-        <v>12470</v>
-      </c>
-      <c r="F875" t="n">
-        <v>382.741</v>
-      </c>
-      <c r="G875" t="n">
-        <v>-18292.17277396001</v>
-      </c>
-      <c r="H875" t="n">
-        <v>2</v>
-      </c>
-      <c r="I875" t="n">
-        <v>12490</v>
-      </c>
-      <c r="J875" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K875" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L875" t="n">
-        <v>1</v>
-      </c>
-      <c r="M875" t="inlineStr"/>
-    </row>
-    <row r="876">
-      <c r="A876" s="1" t="n">
-        <v>874</v>
-      </c>
-      <c r="B876" t="n">
-        <v>12470</v>
-      </c>
-      <c r="C876" t="n">
-        <v>12480</v>
-      </c>
-      <c r="D876" t="n">
-        <v>12480</v>
-      </c>
-      <c r="E876" t="n">
-        <v>12420</v>
-      </c>
-      <c r="F876" t="n">
-        <v>184.8275</v>
-      </c>
-      <c r="G876" t="n">
-        <v>-18107.34527396001</v>
-      </c>
-      <c r="H876" t="n">
-        <v>2</v>
-      </c>
-      <c r="I876" t="n">
-        <v>12470</v>
-      </c>
-      <c r="J876" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K876" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L876" t="n">
-        <v>1</v>
-      </c>
-      <c r="M876" t="inlineStr"/>
-    </row>
-    <row r="877">
-      <c r="A877" s="1" t="n">
-        <v>875</v>
-      </c>
-      <c r="B877" t="n">
-        <v>12480</v>
-      </c>
-      <c r="C877" t="n">
-        <v>12490</v>
-      </c>
-      <c r="D877" t="n">
-        <v>12490</v>
-      </c>
-      <c r="E877" t="n">
-        <v>12480</v>
-      </c>
-      <c r="F877" t="n">
-        <v>36.6517</v>
-      </c>
-      <c r="G877" t="n">
-        <v>-18070.69357396001</v>
-      </c>
-      <c r="H877" t="n">
-        <v>2</v>
-      </c>
-      <c r="I877" t="n">
-        <v>12480</v>
-      </c>
-      <c r="J877" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L877" t="n">
-        <v>1</v>
-      </c>
-      <c r="M877" t="inlineStr"/>
-    </row>
-    <row r="878">
-      <c r="A878" s="1" t="n">
-        <v>876</v>
-      </c>
-      <c r="B878" t="n">
-        <v>12480</v>
-      </c>
-      <c r="C878" t="n">
-        <v>12480</v>
-      </c>
-      <c r="D878" t="n">
-        <v>12480</v>
-      </c>
-      <c r="E878" t="n">
-        <v>12480</v>
-      </c>
-      <c r="F878" t="n">
-        <v>51.4165</v>
-      </c>
-      <c r="G878" t="n">
-        <v>-18122.11007396001</v>
-      </c>
-      <c r="H878" t="n">
-        <v>2</v>
-      </c>
-      <c r="I878" t="n">
-        <v>12490</v>
-      </c>
-      <c r="J878" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K878" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L878" t="n">
-        <v>1</v>
-      </c>
-      <c r="M878" t="inlineStr"/>
-    </row>
-    <row r="879">
-      <c r="A879" s="1" t="n">
-        <v>877</v>
-      </c>
-      <c r="B879" t="n">
-        <v>12450</v>
-      </c>
-      <c r="C879" t="n">
-        <v>12430</v>
-      </c>
-      <c r="D879" t="n">
-        <v>12450</v>
-      </c>
-      <c r="E879" t="n">
-        <v>12430</v>
-      </c>
-      <c r="F879" t="n">
-        <v>294.4879</v>
-      </c>
-      <c r="G879" t="n">
-        <v>-18416.59797396001</v>
-      </c>
-      <c r="H879" t="n">
-        <v>2</v>
-      </c>
-      <c r="I879" t="n">
-        <v>12480</v>
-      </c>
-      <c r="J879" t="n">
-        <v>12670</v>
-      </c>
-      <c r="K879" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -30481,13 +29435,13 @@
         <v>-19383.01727396001</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I880" t="n">
         <v>12430</v>
       </c>
       <c r="J880" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -30522,13 +29476,11 @@
         <v>-19383.01727396001</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
-      </c>
-      <c r="I881" t="n">
-        <v>12410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
       <c r="J881" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -30567,7 +29519,7 @@
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -30606,7 +29558,7 @@
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -30645,7 +29597,7 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -30684,7 +29636,7 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -30723,7 +29675,7 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -30762,7 +29714,7 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -30801,7 +29753,7 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -30840,7 +29792,7 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -30875,13 +29827,11 @@
         <v>-20294.55557396002</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
-      </c>
-      <c r="I890" t="n">
-        <v>12290</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
       <c r="J890" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -30916,13 +29866,13 @@
         <v>-21622.21207396002</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I891" t="n">
         <v>12270</v>
       </c>
       <c r="J891" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -30957,13 +29907,11 @@
         <v>-21622.21207396002</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
-      </c>
-      <c r="I892" t="n">
-        <v>12200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
       <c r="J892" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -30998,11 +29946,13 @@
         <v>-21445.48467396002</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>12200</v>
+      </c>
       <c r="J893" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -31037,11 +29987,13 @@
         <v>-21445.48467396002</v>
       </c>
       <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I894" t="n">
+        <v>12240</v>
+      </c>
       <c r="J894" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -31076,13 +30028,13 @@
         <v>-21425.48467396002</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I895" t="n">
         <v>12240</v>
       </c>
       <c r="J895" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -31117,13 +30069,13 @@
         <v>-21334.65957396002</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I896" t="n">
         <v>12290</v>
       </c>
       <c r="J896" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -31158,13 +30110,13 @@
         <v>-21179.53726359002</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I897" t="n">
         <v>12310</v>
       </c>
       <c r="J897" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -31199,11 +30151,13 @@
         <v>-21179.53726359002</v>
       </c>
       <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>12340</v>
+      </c>
       <c r="J898" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -31238,13 +30192,13 @@
         <v>-20957.97491507002</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I899" t="n">
         <v>12340</v>
       </c>
       <c r="J899" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -31279,13 +30233,13 @@
         <v>-20919.39223019002</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I900" t="n">
         <v>12360</v>
       </c>
       <c r="J900" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -31320,13 +30274,13 @@
         <v>-20609.90673489002</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>12380</v>
       </c>
       <c r="J901" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -31361,13 +30315,13 @@
         <v>-20450.48359448002</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>12420</v>
       </c>
       <c r="J902" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -31402,13 +30356,13 @@
         <v>-20526.78799448002</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I903" t="n">
         <v>12440</v>
       </c>
       <c r="J903" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -31443,13 +30397,11 @@
         <v>-20627.22339448002</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
-      </c>
-      <c r="I904" t="n">
-        <v>12430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
       <c r="J904" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -31484,13 +30436,11 @@
         <v>-20779.11159448002</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
-      </c>
-      <c r="I905" t="n">
-        <v>12370</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
       <c r="J905" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -31525,13 +30475,11 @@
         <v>-20779.11159448002</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
-      </c>
-      <c r="I906" t="n">
-        <v>12360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
       <c r="J906" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -31566,13 +30514,13 @@
         <v>-20605.91269448002</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I907" t="n">
         <v>12360</v>
       </c>
       <c r="J907" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -31607,13 +30555,11 @@
         <v>-20605.91269448002</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
-      </c>
-      <c r="I908" t="n">
-        <v>12400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
       <c r="J908" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -31648,13 +30594,11 @@
         <v>-20401.52467362002</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
-      </c>
-      <c r="I909" t="n">
-        <v>12400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
       <c r="J909" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -31689,13 +30633,11 @@
         <v>-20316.04277362003</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
-      </c>
-      <c r="I910" t="n">
-        <v>12460</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
       <c r="J910" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -31734,7 +30676,7 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -31773,7 +30715,7 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -31812,7 +30754,7 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -31851,7 +30793,7 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -31890,7 +30832,7 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -31929,7 +30871,7 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -31968,7 +30910,7 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="n">
-        <v>12670</v>
+        <v>12490</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -31981,6 +30923,6 @@
       <c r="M917" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest BTG.xlsx
+++ b/BackTest/2020-01-23 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -979,7 +979,7 @@
         <v>1072.29008215</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1040.49168215</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>933.35098215</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>489.85098215</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>489.85098215</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>673.75958215</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>1311.07178215</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1352.87178215</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1597.22258215</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1620.66868215</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1550.45138215</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>1550.45138215</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1455.70248215</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>827.5690143399996</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1006.48931426</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1006.48931426</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1176.56511426</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>1262.41761426</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>1109.41761426</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-5643.103675540001</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-5661.188884460001</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-5661.188884460001</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-5673.165084460001</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-5823.255984460001</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-6067.479784460002</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-6068.479784460002</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-6055.449684460002</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-5783.449684460002</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-5783.449684460002</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-5070.742149910002</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-4825.283949910002</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4395.566098580002</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4432.517098580002</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-4667.713898580002</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-5220.465264030002</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-5325.125838580001</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-5306.822038580001</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-5459.702538580002</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-5600.638638580001</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-5605.610638580001</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-5741.469538580001</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-5000.145638580001</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5000.145638580001</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-4988.428338580001</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-5302.146638580001</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-5302.146638580001</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-6011.23523858</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-6220.743838580001</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-6081.717912159998</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-6393.871912159999</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-6393.871912159999</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-6217.871912159999</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-5946.871912159999</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-6029.678912159999</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-6029.249012159999</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-5710.686016379998</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-5710.766016379998</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-6010.766016379998</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-6010.726016379998</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-6010.726016379998</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-6084.726016379998</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-6080.376016379998</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-6025.039016379998</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-6140.469016379998</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-5989.588716379998</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-6006.197616379998</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-5963.517116379998</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-6026.801716379998</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-6182.933716379997</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-6183.580116379997</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-6183.580116379997</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-6501.557216379997</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-6501.557216379997</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-6569.557216379997</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-6582.577216379997</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-6986.137616379998</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-6926.143516379998</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-6891.749816379998</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-6930.066316379998</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-6930.066316379998</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-6896.066316379998</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-6876.066316379998</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-7239.965016379998</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-7239.838116379998</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-7239.878116379998</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-5365.653392789998</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-4240.812792789999</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-5129.463992789999</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-5129.463992789999</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-5128.054592789999</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-5081.84339279</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-6496.580992789999</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-6500.592592789999</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-6703.887692789999</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-6640.474750779999</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-7374.706491579999</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-7374.706491579999</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-6607.925791579999</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-6557.094291579999</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-6557.094291579999</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-6976.906991579999</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-6976.906991579999</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-6162.734941969999</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-5550.474441969999</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-5348.79524197</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-5757.245141969999</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-5780.806141969999</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-5033.310962669999</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-5116.673762669999</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-5305.071062669998</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-5305.071062669998</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-5360.095662669998</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-5432.095662669998</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-5432.095662669998</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-5442.095662669998</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-5442.095662669998</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-5392.756762669998</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-5392.756762669998</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-5754.993462669999</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-5754.943462669999</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-5885.535262669999</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-6028.652762669999</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-6028.652762669999</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-6891.262862669999</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-6635.978762669999</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>-6619.788762669999</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>-6619.788762669999</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>-6619.788762669999</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-6499.881262669999</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-6256.951262669999</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-6256.951262669999</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-6139.305562669999</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-6142.809762669999</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-6419.347362669999</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-6516.773962669999</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-6936.652317749998</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-8091.783817749998</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>-7926.547617749998</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>-7740.396007789997</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>-7730.396007789997</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>-7312.181707789998</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>-7221.781707789998</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>-6954.590007789998</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-6907.559807789998</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-4289.287307789998</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-4408.247307789998</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-4408.197307789997</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-4872.480507789997</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-5024.627607789997</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-5236.026807789997</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-5341.131407789997</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-5882.269107789997</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-5606.511307789997</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-5606.511307789997</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-5606.511307789997</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-5776.720007789997</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-5776.720007789997</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-5763.720007789997</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-5792.720007789997</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-5679.720007789997</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-5666.539185179997</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-5666.539185179997</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-5681.545285179996</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-5627.654085179996</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-5620.349385179997</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-5620.349385179997</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-5627.417585179996</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-5628.417585179996</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-5624.876185179996</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-5624.876185179996</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-5682.660017489997</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-5357.116417489996</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-5490.096917489996</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-5852.933417489997</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-5252.002817489997</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-5252.002817489997</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-5316.721917489997</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-5294.904317489997</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-5292.563517489997</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-5294.063517489997</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-5244.063517489997</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-5173.005517489997</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21571,7 +21571,7 @@
         <v>-4929.019827309997</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-4929.019827309997</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-5052.279827309997</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-5127.464627309997</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-5183.528027309997</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-5152.780427309997</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-6345.098427309998</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-6975.819727309998</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -21835,7 +21835,7 @@
         <v>-7279.221427309998</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -21868,7 +21868,7 @@
         <v>-7234.787127309998</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -21901,7 +21901,7 @@
         <v>-7234.787127309998</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -21934,7 +21934,7 @@
         <v>-7615.011427309998</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -21967,7 +21967,7 @@
         <v>-7615.011427309998</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22000,7 +22000,7 @@
         <v>-7090.951227309998</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22033,7 +22033,7 @@
         <v>-7090.951227309998</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-6488.644027309998</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-6529.645527309998</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22132,7 +22132,7 @@
         <v>-6526.453927309998</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-6526.453927309998</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22198,7 +22198,7 @@
         <v>-6468.050027309998</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -29359,14 +29359,10 @@
         <v>-18122.11007396001</v>
       </c>
       <c r="H878" t="n">
-        <v>1</v>
-      </c>
-      <c r="I878" t="n">
-        <v>12490</v>
-      </c>
-      <c r="J878" t="n">
-        <v>12490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I878" t="inlineStr"/>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr"/>
       <c r="L878" t="n">
         <v>1</v>
@@ -29399,566 +29395,476 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
+      <c r="J879" t="inlineStr"/>
+      <c r="K879" t="inlineStr"/>
+      <c r="L879" t="n">
+        <v>1</v>
+      </c>
+      <c r="M879" t="inlineStr"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>878</v>
+      </c>
+      <c r="B880" t="n">
+        <v>12450</v>
+      </c>
+      <c r="C880" t="n">
+        <v>12410</v>
+      </c>
+      <c r="D880" t="n">
+        <v>12450</v>
+      </c>
+      <c r="E880" t="n">
+        <v>12410</v>
+      </c>
+      <c r="F880" t="n">
+        <v>966.4193</v>
+      </c>
+      <c r="G880" t="n">
+        <v>-19383.01727396001</v>
+      </c>
+      <c r="H880" t="n">
+        <v>0</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="n">
+        <v>1</v>
+      </c>
+      <c r="M880" t="inlineStr"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>879</v>
+      </c>
+      <c r="B881" t="n">
+        <v>12410</v>
+      </c>
+      <c r="C881" t="n">
+        <v>12410</v>
+      </c>
+      <c r="D881" t="n">
+        <v>12410</v>
+      </c>
+      <c r="E881" t="n">
+        <v>12400</v>
+      </c>
+      <c r="F881" t="n">
+        <v>328.9846</v>
+      </c>
+      <c r="G881" t="n">
+        <v>-19383.01727396001</v>
+      </c>
+      <c r="H881" t="n">
+        <v>0</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="n">
+        <v>1</v>
+      </c>
+      <c r="M881" t="inlineStr"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="n">
+        <v>12410</v>
+      </c>
+      <c r="C882" t="n">
         <v>12490</v>
       </c>
-      <c r="K879" t="inlineStr">
+      <c r="D882" t="n">
+        <v>12490</v>
+      </c>
+      <c r="E882" t="n">
+        <v>12410</v>
+      </c>
+      <c r="F882" t="n">
+        <v>319.6448</v>
+      </c>
+      <c r="G882" t="n">
+        <v>-19063.37247396001</v>
+      </c>
+      <c r="H882" t="n">
+        <v>0</v>
+      </c>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr"/>
+      <c r="L882" t="n">
+        <v>1</v>
+      </c>
+      <c r="M882" t="inlineStr"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="n">
+        <v>12420</v>
+      </c>
+      <c r="C883" t="n">
+        <v>12410</v>
+      </c>
+      <c r="D883" t="n">
+        <v>12420</v>
+      </c>
+      <c r="E883" t="n">
+        <v>12410</v>
+      </c>
+      <c r="F883" t="n">
+        <v>90.08029999999999</v>
+      </c>
+      <c r="G883" t="n">
+        <v>-19153.45277396002</v>
+      </c>
+      <c r="H883" t="n">
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="n">
+        <v>1</v>
+      </c>
+      <c r="M883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="n">
+        <v>12400</v>
+      </c>
+      <c r="C884" t="n">
+        <v>12420</v>
+      </c>
+      <c r="D884" t="n">
+        <v>12420</v>
+      </c>
+      <c r="E884" t="n">
+        <v>12350</v>
+      </c>
+      <c r="F884" t="n">
+        <v>1078.9114</v>
+      </c>
+      <c r="G884" t="n">
+        <v>-18074.54137396002</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
+      <c r="L884" t="n">
+        <v>1</v>
+      </c>
+      <c r="M884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="n">
+        <v>12380</v>
+      </c>
+      <c r="C885" t="n">
+        <v>12380</v>
+      </c>
+      <c r="D885" t="n">
+        <v>12380</v>
+      </c>
+      <c r="E885" t="n">
+        <v>12380</v>
+      </c>
+      <c r="F885" t="n">
+        <v>611.9932</v>
+      </c>
+      <c r="G885" t="n">
+        <v>-18686.53457396002</v>
+      </c>
+      <c r="H885" t="n">
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="n">
+        <v>1</v>
+      </c>
+      <c r="M885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="n">
+        <v>12380</v>
+      </c>
+      <c r="C886" t="n">
+        <v>12380</v>
+      </c>
+      <c r="D886" t="n">
+        <v>12380</v>
+      </c>
+      <c r="E886" t="n">
+        <v>12380</v>
+      </c>
+      <c r="F886" t="n">
+        <v>75.49760000000001</v>
+      </c>
+      <c r="G886" t="n">
+        <v>-18686.53457396002</v>
+      </c>
+      <c r="H886" t="n">
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
+      <c r="L886" t="n">
+        <v>1</v>
+      </c>
+      <c r="M886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" t="n">
+        <v>12380</v>
+      </c>
+      <c r="C887" t="n">
+        <v>12360</v>
+      </c>
+      <c r="D887" t="n">
+        <v>12380</v>
+      </c>
+      <c r="E887" t="n">
+        <v>12360</v>
+      </c>
+      <c r="F887" t="n">
+        <v>62.872</v>
+      </c>
+      <c r="G887" t="n">
+        <v>-18749.40657396002</v>
+      </c>
+      <c r="H887" t="n">
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
+      <c r="L887" t="n">
+        <v>1</v>
+      </c>
+      <c r="M887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" t="n">
+        <v>12360</v>
+      </c>
+      <c r="C888" t="n">
+        <v>12330</v>
+      </c>
+      <c r="D888" t="n">
+        <v>12360</v>
+      </c>
+      <c r="E888" t="n">
+        <v>12330</v>
+      </c>
+      <c r="F888" t="n">
+        <v>223.0008</v>
+      </c>
+      <c r="G888" t="n">
+        <v>-18972.40737396002</v>
+      </c>
+      <c r="H888" t="n">
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
+      <c r="L888" t="n">
+        <v>1</v>
+      </c>
+      <c r="M888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" t="n">
+        <v>12330</v>
+      </c>
+      <c r="C889" t="n">
+        <v>12290</v>
+      </c>
+      <c r="D889" t="n">
+        <v>12330</v>
+      </c>
+      <c r="E889" t="n">
+        <v>12290</v>
+      </c>
+      <c r="F889" t="n">
+        <v>857.7399</v>
+      </c>
+      <c r="G889" t="n">
+        <v>-19830.14727396002</v>
+      </c>
+      <c r="H889" t="n">
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="n">
+        <v>1</v>
+      </c>
+      <c r="M889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" t="n">
+        <v>12290</v>
+      </c>
+      <c r="C890" t="n">
+        <v>12270</v>
+      </c>
+      <c r="D890" t="n">
+        <v>12290</v>
+      </c>
+      <c r="E890" t="n">
+        <v>12270</v>
+      </c>
+      <c r="F890" t="n">
+        <v>464.4083</v>
+      </c>
+      <c r="G890" t="n">
+        <v>-20294.55557396002</v>
+      </c>
+      <c r="H890" t="n">
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="n">
+        <v>1</v>
+      </c>
+      <c r="M890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="n">
+        <v>12260</v>
+      </c>
+      <c r="C891" t="n">
+        <v>12200</v>
+      </c>
+      <c r="D891" t="n">
+        <v>12260</v>
+      </c>
+      <c r="E891" t="n">
+        <v>12200</v>
+      </c>
+      <c r="F891" t="n">
+        <v>1327.6565</v>
+      </c>
+      <c r="G891" t="n">
+        <v>-21622.21207396002</v>
+      </c>
+      <c r="H891" t="n">
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="n">
+        <v>1</v>
+      </c>
+      <c r="M891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="n">
+        <v>12210</v>
+      </c>
+      <c r="C892" t="n">
+        <v>12200</v>
+      </c>
+      <c r="D892" t="n">
+        <v>12210</v>
+      </c>
+      <c r="E892" t="n">
+        <v>12200</v>
+      </c>
+      <c r="F892" t="n">
+        <v>183.9024</v>
+      </c>
+      <c r="G892" t="n">
+        <v>-21622.21207396002</v>
+      </c>
+      <c r="H892" t="n">
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="n">
+        <v>1</v>
+      </c>
+      <c r="M892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="n">
+        <v>12200</v>
+      </c>
+      <c r="C893" t="n">
+        <v>12240</v>
+      </c>
+      <c r="D893" t="n">
+        <v>12240</v>
+      </c>
+      <c r="E893" t="n">
+        <v>12200</v>
+      </c>
+      <c r="F893" t="n">
+        <v>176.7274</v>
+      </c>
+      <c r="G893" t="n">
+        <v>-21445.48467396002</v>
+      </c>
+      <c r="H893" t="n">
+        <v>1</v>
+      </c>
+      <c r="I893" t="n">
+        <v>12200</v>
+      </c>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L879" t="n">
-        <v>1</v>
-      </c>
-      <c r="M879" t="inlineStr"/>
-    </row>
-    <row r="880">
-      <c r="A880" s="1" t="n">
-        <v>878</v>
-      </c>
-      <c r="B880" t="n">
-        <v>12450</v>
-      </c>
-      <c r="C880" t="n">
-        <v>12410</v>
-      </c>
-      <c r="D880" t="n">
-        <v>12450</v>
-      </c>
-      <c r="E880" t="n">
-        <v>12410</v>
-      </c>
-      <c r="F880" t="n">
-        <v>966.4193</v>
-      </c>
-      <c r="G880" t="n">
-        <v>-19383.01727396001</v>
-      </c>
-      <c r="H880" t="n">
-        <v>1</v>
-      </c>
-      <c r="I880" t="n">
-        <v>12430</v>
-      </c>
-      <c r="J880" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L880" t="n">
-        <v>1</v>
-      </c>
-      <c r="M880" t="inlineStr"/>
-    </row>
-    <row r="881">
-      <c r="A881" s="1" t="n">
-        <v>879</v>
-      </c>
-      <c r="B881" t="n">
-        <v>12410</v>
-      </c>
-      <c r="C881" t="n">
-        <v>12410</v>
-      </c>
-      <c r="D881" t="n">
-        <v>12410</v>
-      </c>
-      <c r="E881" t="n">
-        <v>12400</v>
-      </c>
-      <c r="F881" t="n">
-        <v>328.9846</v>
-      </c>
-      <c r="G881" t="n">
-        <v>-19383.01727396001</v>
-      </c>
-      <c r="H881" t="n">
-        <v>0</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L881" t="n">
-        <v>1</v>
-      </c>
-      <c r="M881" t="inlineStr"/>
-    </row>
-    <row r="882">
-      <c r="A882" s="1" t="n">
-        <v>880</v>
-      </c>
-      <c r="B882" t="n">
-        <v>12410</v>
-      </c>
-      <c r="C882" t="n">
-        <v>12490</v>
-      </c>
-      <c r="D882" t="n">
-        <v>12490</v>
-      </c>
-      <c r="E882" t="n">
-        <v>12410</v>
-      </c>
-      <c r="F882" t="n">
-        <v>319.6448</v>
-      </c>
-      <c r="G882" t="n">
-        <v>-19063.37247396001</v>
-      </c>
-      <c r="H882" t="n">
-        <v>0</v>
-      </c>
-      <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K882" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L882" t="n">
-        <v>1</v>
-      </c>
-      <c r="M882" t="inlineStr"/>
-    </row>
-    <row r="883">
-      <c r="A883" s="1" t="n">
-        <v>881</v>
-      </c>
-      <c r="B883" t="n">
-        <v>12420</v>
-      </c>
-      <c r="C883" t="n">
-        <v>12410</v>
-      </c>
-      <c r="D883" t="n">
-        <v>12420</v>
-      </c>
-      <c r="E883" t="n">
-        <v>12410</v>
-      </c>
-      <c r="F883" t="n">
-        <v>90.08029999999999</v>
-      </c>
-      <c r="G883" t="n">
-        <v>-19153.45277396002</v>
-      </c>
-      <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L883" t="n">
-        <v>1</v>
-      </c>
-      <c r="M883" t="inlineStr"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="1" t="n">
-        <v>882</v>
-      </c>
-      <c r="B884" t="n">
-        <v>12400</v>
-      </c>
-      <c r="C884" t="n">
-        <v>12420</v>
-      </c>
-      <c r="D884" t="n">
-        <v>12420</v>
-      </c>
-      <c r="E884" t="n">
-        <v>12350</v>
-      </c>
-      <c r="F884" t="n">
-        <v>1078.9114</v>
-      </c>
-      <c r="G884" t="n">
-        <v>-18074.54137396002</v>
-      </c>
-      <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L884" t="n">
-        <v>1</v>
-      </c>
-      <c r="M884" t="inlineStr"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="1" t="n">
-        <v>883</v>
-      </c>
-      <c r="B885" t="n">
-        <v>12380</v>
-      </c>
-      <c r="C885" t="n">
-        <v>12380</v>
-      </c>
-      <c r="D885" t="n">
-        <v>12380</v>
-      </c>
-      <c r="E885" t="n">
-        <v>12380</v>
-      </c>
-      <c r="F885" t="n">
-        <v>611.9932</v>
-      </c>
-      <c r="G885" t="n">
-        <v>-18686.53457396002</v>
-      </c>
-      <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L885" t="n">
-        <v>1</v>
-      </c>
-      <c r="M885" t="inlineStr"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="1" t="n">
-        <v>884</v>
-      </c>
-      <c r="B886" t="n">
-        <v>12380</v>
-      </c>
-      <c r="C886" t="n">
-        <v>12380</v>
-      </c>
-      <c r="D886" t="n">
-        <v>12380</v>
-      </c>
-      <c r="E886" t="n">
-        <v>12380</v>
-      </c>
-      <c r="F886" t="n">
-        <v>75.49760000000001</v>
-      </c>
-      <c r="G886" t="n">
-        <v>-18686.53457396002</v>
-      </c>
-      <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L886" t="n">
-        <v>1</v>
-      </c>
-      <c r="M886" t="inlineStr"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="1" t="n">
-        <v>885</v>
-      </c>
-      <c r="B887" t="n">
-        <v>12380</v>
-      </c>
-      <c r="C887" t="n">
-        <v>12360</v>
-      </c>
-      <c r="D887" t="n">
-        <v>12380</v>
-      </c>
-      <c r="E887" t="n">
-        <v>12360</v>
-      </c>
-      <c r="F887" t="n">
-        <v>62.872</v>
-      </c>
-      <c r="G887" t="n">
-        <v>-18749.40657396002</v>
-      </c>
-      <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L887" t="n">
-        <v>1</v>
-      </c>
-      <c r="M887" t="inlineStr"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="1" t="n">
-        <v>886</v>
-      </c>
-      <c r="B888" t="n">
-        <v>12360</v>
-      </c>
-      <c r="C888" t="n">
-        <v>12330</v>
-      </c>
-      <c r="D888" t="n">
-        <v>12360</v>
-      </c>
-      <c r="E888" t="n">
-        <v>12330</v>
-      </c>
-      <c r="F888" t="n">
-        <v>223.0008</v>
-      </c>
-      <c r="G888" t="n">
-        <v>-18972.40737396002</v>
-      </c>
-      <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L888" t="n">
-        <v>1</v>
-      </c>
-      <c r="M888" t="inlineStr"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="1" t="n">
-        <v>887</v>
-      </c>
-      <c r="B889" t="n">
-        <v>12330</v>
-      </c>
-      <c r="C889" t="n">
-        <v>12290</v>
-      </c>
-      <c r="D889" t="n">
-        <v>12330</v>
-      </c>
-      <c r="E889" t="n">
-        <v>12290</v>
-      </c>
-      <c r="F889" t="n">
-        <v>857.7399</v>
-      </c>
-      <c r="G889" t="n">
-        <v>-19830.14727396002</v>
-      </c>
-      <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L889" t="n">
-        <v>1</v>
-      </c>
-      <c r="M889" t="inlineStr"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="1" t="n">
-        <v>888</v>
-      </c>
-      <c r="B890" t="n">
-        <v>12290</v>
-      </c>
-      <c r="C890" t="n">
-        <v>12270</v>
-      </c>
-      <c r="D890" t="n">
-        <v>12290</v>
-      </c>
-      <c r="E890" t="n">
-        <v>12270</v>
-      </c>
-      <c r="F890" t="n">
-        <v>464.4083</v>
-      </c>
-      <c r="G890" t="n">
-        <v>-20294.55557396002</v>
-      </c>
-      <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L890" t="n">
-        <v>1</v>
-      </c>
-      <c r="M890" t="inlineStr"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="1" t="n">
-        <v>889</v>
-      </c>
-      <c r="B891" t="n">
-        <v>12260</v>
-      </c>
-      <c r="C891" t="n">
-        <v>12200</v>
-      </c>
-      <c r="D891" t="n">
-        <v>12260</v>
-      </c>
-      <c r="E891" t="n">
-        <v>12200</v>
-      </c>
-      <c r="F891" t="n">
-        <v>1327.6565</v>
-      </c>
-      <c r="G891" t="n">
-        <v>-21622.21207396002</v>
-      </c>
-      <c r="H891" t="n">
-        <v>1</v>
-      </c>
-      <c r="I891" t="n">
-        <v>12270</v>
-      </c>
-      <c r="J891" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L891" t="n">
-        <v>1</v>
-      </c>
-      <c r="M891" t="inlineStr"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="1" t="n">
-        <v>890</v>
-      </c>
-      <c r="B892" t="n">
-        <v>12210</v>
-      </c>
-      <c r="C892" t="n">
-        <v>12200</v>
-      </c>
-      <c r="D892" t="n">
-        <v>12210</v>
-      </c>
-      <c r="E892" t="n">
-        <v>12200</v>
-      </c>
-      <c r="F892" t="n">
-        <v>183.9024</v>
-      </c>
-      <c r="G892" t="n">
-        <v>-21622.21207396002</v>
-      </c>
-      <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L892" t="n">
-        <v>1</v>
-      </c>
-      <c r="M892" t="inlineStr"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="1" t="n">
-        <v>891</v>
-      </c>
-      <c r="B893" t="n">
-        <v>12200</v>
-      </c>
-      <c r="C893" t="n">
-        <v>12240</v>
-      </c>
-      <c r="D893" t="n">
-        <v>12240</v>
-      </c>
-      <c r="E893" t="n">
-        <v>12200</v>
-      </c>
-      <c r="F893" t="n">
-        <v>176.7274</v>
-      </c>
-      <c r="G893" t="n">
-        <v>-21445.48467396002</v>
-      </c>
-      <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>12200</v>
-      </c>
-      <c r="J893" t="n">
-        <v>12490</v>
-      </c>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29992,9 +29898,7 @@
       <c r="I894" t="n">
         <v>12240</v>
       </c>
-      <c r="J894" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30033,9 +29937,7 @@
       <c r="I895" t="n">
         <v>12240</v>
       </c>
-      <c r="J895" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30074,9 +29976,7 @@
       <c r="I896" t="n">
         <v>12290</v>
       </c>
-      <c r="J896" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30115,9 +30015,7 @@
       <c r="I897" t="n">
         <v>12310</v>
       </c>
-      <c r="J897" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30156,9 +30054,7 @@
       <c r="I898" t="n">
         <v>12340</v>
       </c>
-      <c r="J898" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30192,14 +30088,10 @@
         <v>-20957.97491507002</v>
       </c>
       <c r="H899" t="n">
-        <v>1</v>
-      </c>
-      <c r="I899" t="n">
-        <v>12340</v>
-      </c>
-      <c r="J899" t="n">
-        <v>12490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30233,14 +30125,10 @@
         <v>-20919.39223019002</v>
       </c>
       <c r="H900" t="n">
-        <v>1</v>
-      </c>
-      <c r="I900" t="n">
-        <v>12360</v>
-      </c>
-      <c r="J900" t="n">
-        <v>12490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30274,14 +30162,10 @@
         <v>-20609.90673489002</v>
       </c>
       <c r="H901" t="n">
-        <v>1</v>
-      </c>
-      <c r="I901" t="n">
-        <v>12380</v>
-      </c>
-      <c r="J901" t="n">
-        <v>12490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30315,14 +30199,10 @@
         <v>-20450.48359448002</v>
       </c>
       <c r="H902" t="n">
-        <v>1</v>
-      </c>
-      <c r="I902" t="n">
-        <v>12420</v>
-      </c>
-      <c r="J902" t="n">
-        <v>12490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30356,14 +30236,10 @@
         <v>-20526.78799448002</v>
       </c>
       <c r="H903" t="n">
-        <v>1</v>
-      </c>
-      <c r="I903" t="n">
-        <v>12440</v>
-      </c>
-      <c r="J903" t="n">
-        <v>12490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30400,9 +30276,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30439,9 +30313,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30478,9 +30350,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30514,14 +30384,10 @@
         <v>-20605.91269448002</v>
       </c>
       <c r="H907" t="n">
-        <v>1</v>
-      </c>
-      <c r="I907" t="n">
-        <v>12360</v>
-      </c>
-      <c r="J907" t="n">
-        <v>12490</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30558,9 +30424,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30597,9 +30461,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30636,9 +30498,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30675,9 +30535,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30714,9 +30572,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30753,9 +30609,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30792,9 +30646,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30831,9 +30683,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30870,9 +30720,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30909,9 +30757,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>12490</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30923,6 +30769,6 @@
       <c r="M917" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest BTG.xlsx
+++ b/BackTest/2020-01-23 BackTest BTG.xlsx
@@ -5302,7 +5302,7 @@
         <v>-5643.103675540001</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-5661.188884460001</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-5661.188884460001</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-5673.165084460001</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-5823.255984460001</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-6067.479784460002</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-6068.479784460002</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-6055.449684460002</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-5783.449684460002</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-5783.449684460002</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-5070.742149910002</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-4825.283949910002</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-4395.566098580002</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-4432.517098580002</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-4667.713898580002</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5136.969898580002</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-6081.717912159998</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-5710.364512159998</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-5710.686016379998</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-5710.766016379998</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-6010.766016379998</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-6010.726016379998</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-6010.726016379998</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-6084.726016379998</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-6080.376016379998</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-6140.469016379998</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-5989.588716379998</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>-5365.653392789998</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>-4522.735392789999</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>-4240.812792789999</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>-5129.463992789999</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>-5129.463992789999</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>-5128.054592789999</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>-5081.84339279</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>-6496.580992789999</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>-6496.448192789999</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>-6500.592592789999</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-6703.887692789999</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-6640.474750779999</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-7374.706491579999</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-7374.706491579999</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-6557.094291579999</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-6976.906991579999</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-6976.906991579999</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-6617.355441969999</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-5550.474441969999</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-5348.79524197</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-5757.245141969999</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-5780.806141969999</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-5760.283241969999</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-5033.310962669999</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-5116.673762669999</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-5305.071062669998</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-5305.071062669998</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-5360.095662669998</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-5432.095662669998</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-5432.095662669998</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-5442.095662669998</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-5442.095662669998</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-5392.756762669998</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-5392.756762669998</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-5754.993462669999</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-5754.943462669999</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-5885.535262669999</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-6028.652762669999</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-6028.652762669999</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>-6499.881262669999</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>-6256.951262669999</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19195,7 +19195,7 @@
         <v>-6256.951262669999</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19228,7 +19228,7 @@
         <v>-6139.305562669999</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19261,7 +19261,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
         <v>-6277.481062669999</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19360,7 +19360,7 @@
         <v>-6142.809762669999</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19393,7 +19393,7 @@
         <v>-6419.347362669999</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19426,7 +19426,7 @@
         <v>-6516.773962669999</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19459,7 +19459,7 @@
         <v>-6936.652317749998</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
         <v>-8091.783817749998</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>-6907.559807789998</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-6830.937507789998</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-4289.287307789998</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-4408.247307789998</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-4408.197307789997</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-4872.480507789997</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-5024.627607789997</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-5236.026807789997</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-5341.131407789997</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-5792.720007789997</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-5627.417585179996</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-5628.417585179996</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-5624.876185179996</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-5624.876185179996</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-5635.620317489997</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-5646.639717489997</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -29854,249 +29854,241 @@
         <v>-21445.48467396002</v>
       </c>
       <c r="H893" t="n">
-        <v>1</v>
-      </c>
-      <c r="I893" t="n">
-        <v>12200</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="n">
+        <v>1</v>
+      </c>
+      <c r="M893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="n">
+        <v>12240</v>
+      </c>
+      <c r="C894" t="n">
+        <v>12240</v>
+      </c>
+      <c r="D894" t="n">
+        <v>12240</v>
+      </c>
+      <c r="E894" t="n">
+        <v>12230</v>
+      </c>
+      <c r="F894" t="n">
+        <v>231.2022</v>
+      </c>
+      <c r="G894" t="n">
+        <v>-21445.48467396002</v>
+      </c>
+      <c r="H894" t="n">
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="n">
+        <v>1</v>
+      </c>
+      <c r="M894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="n">
+        <v>12270</v>
+      </c>
+      <c r="C895" t="n">
+        <v>12290</v>
+      </c>
+      <c r="D895" t="n">
+        <v>12290</v>
+      </c>
+      <c r="E895" t="n">
+        <v>12270</v>
+      </c>
+      <c r="F895" t="n">
+        <v>20</v>
+      </c>
+      <c r="G895" t="n">
+        <v>-21425.48467396002</v>
+      </c>
+      <c r="H895" t="n">
+        <v>1</v>
+      </c>
+      <c r="I895" t="n">
+        <v>12240</v>
+      </c>
+      <c r="J895" t="n">
+        <v>12240</v>
+      </c>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="n">
+        <v>1</v>
+      </c>
+      <c r="M895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="n">
+        <v>12270</v>
+      </c>
+      <c r="C896" t="n">
+        <v>12310</v>
+      </c>
+      <c r="D896" t="n">
+        <v>12310</v>
+      </c>
+      <c r="E896" t="n">
+        <v>12270</v>
+      </c>
+      <c r="F896" t="n">
+        <v>90.82510000000001</v>
+      </c>
+      <c r="G896" t="n">
+        <v>-21334.65957396002</v>
+      </c>
+      <c r="H896" t="n">
+        <v>1</v>
+      </c>
+      <c r="I896" t="n">
+        <v>12290</v>
+      </c>
+      <c r="J896" t="n">
+        <v>12240</v>
+      </c>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L896" t="n">
+        <v>1</v>
+      </c>
+      <c r="M896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="n">
+        <v>12310</v>
+      </c>
+      <c r="C897" t="n">
+        <v>12340</v>
+      </c>
+      <c r="D897" t="n">
+        <v>12340</v>
+      </c>
+      <c r="E897" t="n">
+        <v>12310</v>
+      </c>
+      <c r="F897" t="n">
+        <v>155.12231037</v>
+      </c>
+      <c r="G897" t="n">
+        <v>-21179.53726359002</v>
+      </c>
+      <c r="H897" t="n">
+        <v>1</v>
+      </c>
+      <c r="I897" t="n">
+        <v>12310</v>
+      </c>
+      <c r="J897" t="n">
+        <v>12240</v>
+      </c>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L897" t="n">
+        <v>1</v>
+      </c>
+      <c r="M897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="n">
+        <v>12340</v>
+      </c>
+      <c r="C898" t="n">
+        <v>12340</v>
+      </c>
+      <c r="D898" t="n">
+        <v>12340</v>
+      </c>
+      <c r="E898" t="n">
+        <v>12340</v>
+      </c>
+      <c r="F898" t="n">
+        <v>20.63865474</v>
+      </c>
+      <c r="G898" t="n">
+        <v>-21179.53726359002</v>
+      </c>
+      <c r="H898" t="n">
+        <v>1</v>
+      </c>
+      <c r="I898" t="n">
+        <v>12340</v>
+      </c>
+      <c r="J898" t="n">
+        <v>12340</v>
+      </c>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="n">
+        <v>1</v>
+      </c>
+      <c r="M898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="n">
+        <v>12340</v>
+      </c>
+      <c r="C899" t="n">
+        <v>12360</v>
+      </c>
+      <c r="D899" t="n">
+        <v>12370</v>
+      </c>
+      <c r="E899" t="n">
+        <v>12340</v>
+      </c>
+      <c r="F899" t="n">
+        <v>221.56234852</v>
+      </c>
+      <c r="G899" t="n">
+        <v>-20957.97491507002</v>
+      </c>
+      <c r="H899" t="n">
+        <v>1</v>
+      </c>
+      <c r="I899" t="n">
+        <v>12340</v>
+      </c>
+      <c r="J899" t="n">
+        <v>12340</v>
+      </c>
+      <c r="K899" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L893" t="n">
-        <v>1</v>
-      </c>
-      <c r="M893" t="inlineStr"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-      <c r="B894" t="n">
-        <v>12240</v>
-      </c>
-      <c r="C894" t="n">
-        <v>12240</v>
-      </c>
-      <c r="D894" t="n">
-        <v>12240</v>
-      </c>
-      <c r="E894" t="n">
-        <v>12230</v>
-      </c>
-      <c r="F894" t="n">
-        <v>231.2022</v>
-      </c>
-      <c r="G894" t="n">
-        <v>-21445.48467396002</v>
-      </c>
-      <c r="H894" t="n">
-        <v>1</v>
-      </c>
-      <c r="I894" t="n">
-        <v>12240</v>
-      </c>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L894" t="n">
-        <v>1</v>
-      </c>
-      <c r="M894" t="inlineStr"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="B895" t="n">
-        <v>12270</v>
-      </c>
-      <c r="C895" t="n">
-        <v>12290</v>
-      </c>
-      <c r="D895" t="n">
-        <v>12290</v>
-      </c>
-      <c r="E895" t="n">
-        <v>12270</v>
-      </c>
-      <c r="F895" t="n">
-        <v>20</v>
-      </c>
-      <c r="G895" t="n">
-        <v>-21425.48467396002</v>
-      </c>
-      <c r="H895" t="n">
-        <v>1</v>
-      </c>
-      <c r="I895" t="n">
-        <v>12240</v>
-      </c>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L895" t="n">
-        <v>1</v>
-      </c>
-      <c r="M895" t="inlineStr"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="1" t="n">
-        <v>894</v>
-      </c>
-      <c r="B896" t="n">
-        <v>12270</v>
-      </c>
-      <c r="C896" t="n">
-        <v>12310</v>
-      </c>
-      <c r="D896" t="n">
-        <v>12310</v>
-      </c>
-      <c r="E896" t="n">
-        <v>12270</v>
-      </c>
-      <c r="F896" t="n">
-        <v>90.82510000000001</v>
-      </c>
-      <c r="G896" t="n">
-        <v>-21334.65957396002</v>
-      </c>
-      <c r="H896" t="n">
-        <v>1</v>
-      </c>
-      <c r="I896" t="n">
-        <v>12290</v>
-      </c>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L896" t="n">
-        <v>1</v>
-      </c>
-      <c r="M896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-      <c r="B897" t="n">
-        <v>12310</v>
-      </c>
-      <c r="C897" t="n">
-        <v>12340</v>
-      </c>
-      <c r="D897" t="n">
-        <v>12340</v>
-      </c>
-      <c r="E897" t="n">
-        <v>12310</v>
-      </c>
-      <c r="F897" t="n">
-        <v>155.12231037</v>
-      </c>
-      <c r="G897" t="n">
-        <v>-21179.53726359002</v>
-      </c>
-      <c r="H897" t="n">
-        <v>1</v>
-      </c>
-      <c r="I897" t="n">
-        <v>12310</v>
-      </c>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L897" t="n">
-        <v>1</v>
-      </c>
-      <c r="M897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-      <c r="B898" t="n">
-        <v>12340</v>
-      </c>
-      <c r="C898" t="n">
-        <v>12340</v>
-      </c>
-      <c r="D898" t="n">
-        <v>12340</v>
-      </c>
-      <c r="E898" t="n">
-        <v>12340</v>
-      </c>
-      <c r="F898" t="n">
-        <v>20.63865474</v>
-      </c>
-      <c r="G898" t="n">
-        <v>-21179.53726359002</v>
-      </c>
-      <c r="H898" t="n">
-        <v>1</v>
-      </c>
-      <c r="I898" t="n">
-        <v>12340</v>
-      </c>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L898" t="n">
-        <v>1</v>
-      </c>
-      <c r="M898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-      <c r="B899" t="n">
-        <v>12340</v>
-      </c>
-      <c r="C899" t="n">
-        <v>12360</v>
-      </c>
-      <c r="D899" t="n">
-        <v>12370</v>
-      </c>
-      <c r="E899" t="n">
-        <v>12340</v>
-      </c>
-      <c r="F899" t="n">
-        <v>221.56234852</v>
-      </c>
-      <c r="G899" t="n">
-        <v>-20957.97491507002</v>
-      </c>
-      <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30125,10 +30117,14 @@
         <v>-20919.39223019002</v>
       </c>
       <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I900" t="n">
+        <v>12360</v>
+      </c>
+      <c r="J900" t="n">
+        <v>12340</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30162,10 +30158,14 @@
         <v>-20609.90673489002</v>
       </c>
       <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I901" t="n">
+        <v>12380</v>
+      </c>
+      <c r="J901" t="n">
+        <v>12340</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30199,10 +30199,14 @@
         <v>-20450.48359448002</v>
       </c>
       <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I902" t="n">
+        <v>12420</v>
+      </c>
+      <c r="J902" t="n">
+        <v>12340</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30236,10 +30240,14 @@
         <v>-20526.78799448002</v>
       </c>
       <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I903" t="n">
+        <v>12440</v>
+      </c>
+      <c r="J903" t="n">
+        <v>12340</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30273,10 +30281,14 @@
         <v>-20627.22339448002</v>
       </c>
       <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I904" t="n">
+        <v>12430</v>
+      </c>
+      <c r="J904" t="n">
+        <v>12340</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30310,10 +30322,14 @@
         <v>-20779.11159448002</v>
       </c>
       <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I905" t="n">
+        <v>12370</v>
+      </c>
+      <c r="J905" t="n">
+        <v>12340</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30347,10 +30363,14 @@
         <v>-20779.11159448002</v>
       </c>
       <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I906" t="n">
+        <v>12360</v>
+      </c>
+      <c r="J906" t="n">
+        <v>12340</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30384,10 +30404,14 @@
         <v>-20605.91269448002</v>
       </c>
       <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I907" t="n">
+        <v>12360</v>
+      </c>
+      <c r="J907" t="n">
+        <v>12340</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30421,10 +30445,14 @@
         <v>-20605.91269448002</v>
       </c>
       <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I908" t="n">
+        <v>12400</v>
+      </c>
+      <c r="J908" t="n">
+        <v>12340</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30458,10 +30486,14 @@
         <v>-20401.52467362002</v>
       </c>
       <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I909" t="n">
+        <v>12400</v>
+      </c>
+      <c r="J909" t="n">
+        <v>12340</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30495,10 +30527,14 @@
         <v>-20316.04277362003</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>12460</v>
+      </c>
+      <c r="J910" t="n">
+        <v>12340</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30532,10 +30568,14 @@
         <v>-20390.40757362002</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>12500</v>
+      </c>
+      <c r="J911" t="n">
+        <v>12340</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30569,10 +30609,14 @@
         <v>-20365.40757362002</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>12490</v>
+      </c>
+      <c r="J912" t="n">
+        <v>12340</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30606,10 +30650,14 @@
         <v>-20259.44837362002</v>
       </c>
       <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I913" t="n">
+        <v>12500</v>
+      </c>
+      <c r="J913" t="n">
+        <v>12340</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30643,10 +30691,14 @@
         <v>-20154.99107362003</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>12510</v>
+      </c>
+      <c r="J914" t="n">
+        <v>12340</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30680,10 +30732,14 @@
         <v>-20302.49107362003</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>12520</v>
+      </c>
+      <c r="J915" t="n">
+        <v>12340</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30717,10 +30773,14 @@
         <v>-20302.49107362003</v>
       </c>
       <c r="H916" t="n">
-        <v>0</v>
-      </c>
-      <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I916" t="n">
+        <v>12500</v>
+      </c>
+      <c r="J916" t="n">
+        <v>12340</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30754,10 +30814,14 @@
         <v>-20387.89937362002</v>
       </c>
       <c r="H917" t="n">
-        <v>0</v>
-      </c>
-      <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I917" t="n">
+        <v>12500</v>
+      </c>
+      <c r="J917" t="n">
+        <v>12340</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
